--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_CONSTR_AR2_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_CONSTR_AR2_50_9.xlsx
@@ -369,171 +369,168 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA92"/>
+  <dimension ref="A1:AZ83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:52">
       <c r="B1" s="1">
-        <v>39400</v>
+        <v>39583</v>
       </c>
       <c r="C1" s="1">
-        <v>39583</v>
+        <v>39765</v>
       </c>
       <c r="D1" s="1">
-        <v>39765</v>
+        <v>39948</v>
       </c>
       <c r="E1" s="1">
-        <v>39948</v>
+        <v>40130</v>
       </c>
       <c r="F1" s="1">
-        <v>40130</v>
+        <v>40310</v>
       </c>
       <c r="G1" s="1">
-        <v>40310</v>
+        <v>40494</v>
       </c>
       <c r="H1" s="1">
-        <v>40494</v>
+        <v>40676</v>
       </c>
       <c r="I1" s="1">
-        <v>40676</v>
+        <v>40862</v>
       </c>
       <c r="J1" s="1">
-        <v>40862</v>
+        <v>41044</v>
       </c>
       <c r="K1" s="1">
-        <v>41044</v>
+        <v>41228</v>
       </c>
       <c r="L1" s="1">
-        <v>41228</v>
+        <v>41409</v>
       </c>
       <c r="M1" s="1">
-        <v>41409</v>
+        <v>41592</v>
       </c>
       <c r="N1" s="1">
-        <v>41592</v>
+        <v>41774</v>
       </c>
       <c r="O1" s="1">
-        <v>41774</v>
+        <v>41957</v>
       </c>
       <c r="P1" s="1">
-        <v>41957</v>
+        <v>42137</v>
       </c>
       <c r="Q1" s="1">
-        <v>42137</v>
+        <v>42321</v>
       </c>
       <c r="R1" s="1">
-        <v>42321</v>
+        <v>42503</v>
       </c>
       <c r="S1" s="1">
-        <v>42503</v>
+        <v>42689</v>
       </c>
       <c r="T1" s="1">
-        <v>42689</v>
+        <v>42867</v>
       </c>
       <c r="U1" s="1">
-        <v>42867</v>
+        <v>43053</v>
       </c>
       <c r="V1" s="1">
-        <v>43053</v>
+        <v>43145</v>
       </c>
       <c r="W1" s="1">
-        <v>43145</v>
+        <v>43235</v>
       </c>
       <c r="X1" s="1">
-        <v>43235</v>
+        <v>43326</v>
       </c>
       <c r="Y1" s="1">
-        <v>43326</v>
+        <v>43418</v>
       </c>
       <c r="Z1" s="1">
-        <v>43418</v>
+        <v>43510</v>
       </c>
       <c r="AA1" s="1">
-        <v>43510</v>
+        <v>43600</v>
       </c>
       <c r="AB1" s="1">
-        <v>43600</v>
+        <v>43691</v>
       </c>
       <c r="AC1" s="1">
-        <v>43691</v>
+        <v>43783</v>
       </c>
       <c r="AD1" s="1">
-        <v>43783</v>
+        <v>43875</v>
       </c>
       <c r="AE1" s="1">
-        <v>43875</v>
+        <v>43966</v>
       </c>
       <c r="AF1" s="1">
-        <v>43966</v>
+        <v>44068</v>
       </c>
       <c r="AG1" s="1">
-        <v>44068</v>
+        <v>44159</v>
       </c>
       <c r="AH1" s="1">
-        <v>44159</v>
+        <v>44251</v>
       </c>
       <c r="AI1" s="1">
-        <v>44251</v>
+        <v>44341</v>
       </c>
       <c r="AJ1" s="1">
-        <v>44341</v>
+        <v>44432</v>
       </c>
       <c r="AK1" s="1">
-        <v>44432</v>
+        <v>44525</v>
       </c>
       <c r="AL1" s="1">
-        <v>44525</v>
+        <v>44617</v>
       </c>
       <c r="AM1" s="1">
-        <v>44617</v>
+        <v>44706</v>
       </c>
       <c r="AN1" s="1">
-        <v>44706</v>
+        <v>44798</v>
       </c>
       <c r="AO1" s="1">
-        <v>44798</v>
+        <v>44890</v>
       </c>
       <c r="AP1" s="1">
-        <v>44890</v>
+        <v>44981</v>
       </c>
       <c r="AQ1" s="1">
-        <v>44981</v>
+        <v>45071</v>
       </c>
       <c r="AR1" s="1">
-        <v>45071</v>
+        <v>45163</v>
       </c>
       <c r="AS1" s="1">
-        <v>45163</v>
+        <v>45254</v>
       </c>
       <c r="AT1" s="1">
-        <v>45254</v>
+        <v>45345</v>
       </c>
       <c r="AU1" s="1">
-        <v>45345</v>
+        <v>45436</v>
       </c>
       <c r="AV1" s="1">
-        <v>45436</v>
+        <v>45534</v>
       </c>
       <c r="AW1" s="1">
-        <v>45534</v>
+        <v>45618</v>
       </c>
       <c r="AX1" s="1">
-        <v>45618</v>
+        <v>45713</v>
       </c>
       <c r="AY1" s="1">
-        <v>45713</v>
+        <v>45800</v>
       </c>
       <c r="AZ1" s="1">
-        <v>45800</v>
-      </c>
-      <c r="BA1" s="1">
         <v>45891</v>
       </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:52">
       <c r="A2" s="1">
         <v>39538</v>
       </c>
@@ -690,11 +687,8 @@
       <c r="AZ2">
         <v>-0.9202615158156533</v>
       </c>
-      <c r="BA2">
-        <v>-0.9202615158156533</v>
-      </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:52">
       <c r="A3" s="1">
         <v>39629</v>
       </c>
@@ -851,17 +845,11 @@
       <c r="AZ3">
         <v>0.8502338137106733</v>
       </c>
-      <c r="BA3">
-        <v>0.8502338137106733</v>
-      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:52">
       <c r="A4" s="1">
         <v>39721</v>
       </c>
-      <c r="B4">
-        <v>0.85</v>
-      </c>
       <c r="C4">
         <v>-4.584240009800993</v>
       </c>
@@ -1012,17 +1000,11 @@
       <c r="AZ4">
         <v>-4.584240009800993</v>
       </c>
-      <c r="BA4">
-        <v>-4.584240009800993</v>
-      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:52">
       <c r="A5" s="1">
         <v>39813</v>
       </c>
-      <c r="B5">
-        <v>0.8070526521480588</v>
-      </c>
       <c r="C5">
         <v>0.1885278214198252</v>
       </c>
@@ -1173,20 +1155,11 @@
       <c r="AZ5">
         <v>0.1885278214198252</v>
       </c>
-      <c r="BA5">
-        <v>0.1885278214198252</v>
-      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:52">
       <c r="A6" s="1">
         <v>39903</v>
       </c>
-      <c r="B6">
-        <v>0.8077926562006326</v>
-      </c>
-      <c r="C6">
-        <v>0.6772526392290388</v>
-      </c>
       <c r="D6">
         <v>-0.0225265157453407</v>
       </c>
@@ -1334,17 +1307,11 @@
       <c r="AZ6">
         <v>-0.0225265157453407</v>
       </c>
-      <c r="BA6">
-        <v>-0.0225265157453407</v>
-      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:52">
       <c r="A7" s="1">
         <v>39994</v>
       </c>
-      <c r="C7">
-        <v>0.7444112022064786</v>
-      </c>
       <c r="D7">
         <v>-0.5310904011974884</v>
       </c>
@@ -1492,20 +1459,11 @@
       <c r="AZ7">
         <v>-0.5310904011974884</v>
       </c>
-      <c r="BA7">
-        <v>-0.5310904011974884</v>
-      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:52">
       <c r="A8" s="1">
         <v>40086</v>
       </c>
-      <c r="C8">
-        <v>0.8555642925598477</v>
-      </c>
-      <c r="D8">
-        <v>-0.2077193692562389</v>
-      </c>
       <c r="E8">
         <v>2.326978350057175</v>
       </c>
@@ -1650,20 +1608,11 @@
       <c r="AZ8">
         <v>2.326978350057175</v>
       </c>
-      <c r="BA8">
-        <v>2.326978350057175</v>
-      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:52">
       <c r="A9" s="1">
         <v>40178</v>
       </c>
-      <c r="C9">
-        <v>0.7667663204885145</v>
-      </c>
-      <c r="D9">
-        <v>0.0248515810713883</v>
-      </c>
       <c r="E9">
         <v>-0.1754120007267943</v>
       </c>
@@ -1808,23 +1757,11 @@
       <c r="AZ9">
         <v>-0.1754120007267943</v>
       </c>
-      <c r="BA9">
-        <v>-0.1754120007267943</v>
-      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:52">
       <c r="A10" s="1">
         <v>40268</v>
       </c>
-      <c r="C10">
-        <v>0.7226490915834205</v>
-      </c>
-      <c r="D10">
-        <v>0.1689339804100456</v>
-      </c>
-      <c r="E10">
-        <v>-0.5187716927080714</v>
-      </c>
       <c r="F10">
         <v>-0.2446904712575417</v>
       </c>
@@ -1966,23 +1903,11 @@
       <c r="AZ10">
         <v>-0.2446904712575417</v>
       </c>
-      <c r="BA10">
-        <v>-0.2446904712575417</v>
-      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:52">
       <c r="A11" s="1">
         <v>40359</v>
       </c>
-      <c r="C11">
-        <v>-0.03000204061924873</v>
-      </c>
-      <c r="D11">
-        <v>-1.220171743119447</v>
-      </c>
-      <c r="E11">
-        <v>-0.02547741087713007</v>
-      </c>
       <c r="F11">
         <v>-0.4827621923091812</v>
       </c>
@@ -2124,26 +2049,11 @@
       <c r="AZ11">
         <v>-0.4827621923091812</v>
       </c>
-      <c r="BA11">
-        <v>-0.4827621923091812</v>
-      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:52">
       <c r="A12" s="1">
         <v>40451</v>
       </c>
-      <c r="C12">
-        <v>0.02438177501188936</v>
-      </c>
-      <c r="D12">
-        <v>-0.5867161878436726</v>
-      </c>
-      <c r="E12">
-        <v>0.4311871488147432</v>
-      </c>
-      <c r="F12">
-        <v>-0.2053068750136759</v>
-      </c>
       <c r="G12">
         <v>4.256325692699008</v>
       </c>
@@ -2282,26 +2192,11 @@
       <c r="AZ12">
         <v>4.256325692699008</v>
       </c>
-      <c r="BA12">
-        <v>4.256325692699008</v>
-      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:52">
       <c r="A13" s="1">
         <v>40543</v>
       </c>
-      <c r="C13">
-        <v>-0.06535641406540374</v>
-      </c>
-      <c r="D13">
-        <v>-0.6347479511340203</v>
-      </c>
-      <c r="E13">
-        <v>0.5190127646174574</v>
-      </c>
-      <c r="F13">
-        <v>-0.004099370678488867</v>
-      </c>
       <c r="G13">
         <v>1.406422522535905</v>
       </c>
@@ -2440,29 +2335,11 @@
       <c r="AZ13">
         <v>1.406422522535905</v>
       </c>
-      <c r="BA13">
-        <v>1.406422522535905</v>
-      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:52">
       <c r="A14" s="1">
         <v>40633</v>
       </c>
-      <c r="C14">
-        <v>-0.05210103033034684</v>
-      </c>
-      <c r="D14">
-        <v>-0.727215211743783</v>
-      </c>
-      <c r="E14">
-        <v>0.5196249850277752</v>
-      </c>
-      <c r="F14">
-        <v>0.05383383999937053</v>
-      </c>
-      <c r="G14">
-        <v>1.381725639047744</v>
-      </c>
       <c r="H14">
         <v>0.2772422611632095</v>
       </c>
@@ -2598,29 +2475,11 @@
       <c r="AZ14">
         <v>0.2772422611632095</v>
       </c>
-      <c r="BA14">
-        <v>0.2772422611632095</v>
-      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:52">
       <c r="A15" s="1">
         <v>40724</v>
       </c>
-      <c r="C15">
-        <v>-0.06333478985005078</v>
-      </c>
-      <c r="D15">
-        <v>-0.6745623117652879</v>
-      </c>
-      <c r="E15">
-        <v>-0.2719696311759744</v>
-      </c>
-      <c r="F15">
-        <v>-0.4065793976801036</v>
-      </c>
-      <c r="G15">
-        <v>-0.1965369824803531</v>
-      </c>
       <c r="H15">
         <v>0.09777039581079805</v>
       </c>
@@ -2756,32 +2615,11 @@
       <c r="AZ15">
         <v>0.09777039581079805</v>
       </c>
-      <c r="BA15">
-        <v>0.09777039581079805</v>
-      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:52">
       <c r="A16" s="1">
         <v>40816</v>
       </c>
-      <c r="C16">
-        <v>-0.06094347173711489</v>
-      </c>
-      <c r="D16">
-        <v>-0.6827394491906246</v>
-      </c>
-      <c r="E16">
-        <v>-0.1091309750828</v>
-      </c>
-      <c r="F16">
-        <v>-0.2877553014448807</v>
-      </c>
-      <c r="G16">
-        <v>-0.7922079768977568</v>
-      </c>
-      <c r="H16">
-        <v>0.1269550594617357</v>
-      </c>
       <c r="I16">
         <v>-3.199651172943476</v>
       </c>
@@ -2914,32 +2752,11 @@
       <c r="AZ16">
         <v>-3.199651172943476</v>
       </c>
-      <c r="BA16">
-        <v>-3.199651172943476</v>
-      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:52">
       <c r="A17" s="1">
         <v>40908</v>
       </c>
-      <c r="C17">
-        <v>-0.06240751502655286</v>
-      </c>
-      <c r="D17">
-        <v>-0.6884380410757039</v>
-      </c>
-      <c r="E17">
-        <v>-0.1766195723728647</v>
-      </c>
-      <c r="F17">
-        <v>-0.3296460258199556</v>
-      </c>
-      <c r="G17">
-        <v>-1.062265519602065</v>
-      </c>
-      <c r="H17">
-        <v>0.6717955667865425</v>
-      </c>
       <c r="I17">
         <v>0.259771897266873</v>
       </c>
@@ -3072,35 +2889,11 @@
       <c r="AZ17">
         <v>0.259771897266873</v>
       </c>
-      <c r="BA17">
-        <v>0.259771897266873</v>
-      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:52">
       <c r="A18" s="1">
         <v>40999</v>
       </c>
-      <c r="C18">
-        <v>-0.06202050539436126</v>
-      </c>
-      <c r="D18">
-        <v>-0.6842437349129307</v>
-      </c>
-      <c r="E18">
-        <v>-0.1557453450331039</v>
-      </c>
-      <c r="F18">
-        <v>-0.3159735784669054</v>
-      </c>
-      <c r="G18">
-        <v>-0.911621726278625</v>
-      </c>
-      <c r="H18">
-        <v>0.5720143465663483</v>
-      </c>
-      <c r="I18">
-        <v>0.8459990880921993</v>
-      </c>
       <c r="J18">
         <v>0.9551364114797707</v>
       </c>
@@ -3230,35 +3023,11 @@
       <c r="AZ18">
         <v>0.9551364114797707</v>
       </c>
-      <c r="BA18">
-        <v>0.9551364114797707</v>
-      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:52">
       <c r="A19" s="1">
         <v>41090</v>
       </c>
-      <c r="C19">
-        <v>-0.06221725405092401</v>
-      </c>
-      <c r="D19">
-        <v>-0.6851985412057341</v>
-      </c>
-      <c r="E19">
-        <v>-0.162937106768641</v>
-      </c>
-      <c r="F19">
-        <v>-0.3205143670590444</v>
-      </c>
-      <c r="G19">
-        <v>-0.1740931065973966</v>
-      </c>
-      <c r="H19">
-        <v>0.2744621615955504</v>
-      </c>
-      <c r="I19">
-        <v>1.304682315704213</v>
-      </c>
       <c r="J19">
         <v>0.5541626057207196</v>
       </c>
@@ -3388,38 +3157,11 @@
       <c r="AZ19">
         <v>0.5541626057207196</v>
       </c>
-      <c r="BA19">
-        <v>0.5541626057207196</v>
-      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:52">
       <c r="A20" s="1">
         <v>41182</v>
       </c>
-      <c r="C20">
-        <v>-0.0621577921521779</v>
-      </c>
-      <c r="D20">
-        <v>-0.6855083969387989</v>
-      </c>
-      <c r="E20">
-        <v>-0.1605614477939769</v>
-      </c>
-      <c r="F20">
-        <v>-0.3190123619336877</v>
-      </c>
-      <c r="G20">
-        <v>-0.1319916205157314</v>
-      </c>
-      <c r="H20">
-        <v>0.282913763829351</v>
-      </c>
-      <c r="I20">
-        <v>1.147881733759064</v>
-      </c>
-      <c r="J20">
-        <v>0.8126901904997936</v>
-      </c>
       <c r="K20">
         <v>3.239439136816884</v>
       </c>
@@ -3546,32 +3288,11 @@
       <c r="AZ20">
         <v>3.239439136816884</v>
       </c>
-      <c r="BA20">
-        <v>3.239439136816884</v>
-      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:52">
       <c r="A21" s="1">
         <v>41274</v>
       </c>
-      <c r="E21">
-        <v>-0.161358928632659</v>
-      </c>
-      <c r="F21">
-        <v>-0.3195096549784303</v>
-      </c>
-      <c r="G21">
-        <v>-0.020928220862166</v>
-      </c>
-      <c r="H21">
-        <v>0.2647707942600089</v>
-      </c>
-      <c r="I21">
-        <v>0.7581248089406643</v>
-      </c>
-      <c r="J21">
-        <v>0.9859221568927694</v>
-      </c>
       <c r="K21">
         <v>2.150628251154643</v>
       </c>
@@ -3698,34 +3419,13 @@
       <c r="AZ21">
         <v>2.150628251154643</v>
       </c>
-      <c r="BA21">
-        <v>2.150628251154643</v>
-      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:52">
       <c r="A22" s="1">
         <v>41364</v>
       </c>
-      <c r="E22">
-        <v>-0.1610928784620075</v>
-      </c>
-      <c r="F22">
-        <v>-0.3193450431023057</v>
-      </c>
-      <c r="G22">
-        <v>-0.01169387475810063</v>
-      </c>
-      <c r="H22">
-        <v>0.2661524433078941</v>
-      </c>
-      <c r="I22">
-        <v>0.6418510343227553</v>
-      </c>
-      <c r="J22">
-        <v>1.029222621605385</v>
-      </c>
       <c r="K22">
-        <v>0.6417484130552253</v>
+        <v>0.6886613894499065</v>
       </c>
       <c r="L22">
         <v>0.7572494446238807</v>
@@ -3850,34 +3550,13 @@
       <c r="AZ22">
         <v>0.7572494446238807</v>
       </c>
-      <c r="BA22">
-        <v>0.7572494446238807</v>
-      </c>
     </row>
-    <row r="23" spans="1:53">
+    <row r="23" spans="1:52">
       <c r="A23" s="1">
         <v>41455</v>
       </c>
-      <c r="E23">
-        <v>-0.1611818480311643</v>
-      </c>
-      <c r="F23">
-        <v>-0.3193995349007979</v>
-      </c>
-      <c r="G23">
-        <v>0.005108102362201786</v>
-      </c>
-      <c r="H23">
-        <v>0.2650042713293362</v>
-      </c>
-      <c r="I23">
-        <v>0.2491341277874939</v>
-      </c>
-      <c r="J23">
-        <v>0.2183190198072953</v>
-      </c>
       <c r="K23">
-        <v>0.472882426562407</v>
+        <v>0.5189949812798</v>
       </c>
       <c r="L23">
         <v>0.5307863054724322</v>
@@ -4002,37 +3681,16 @@
       <c r="AZ23">
         <v>0.5307863054724322</v>
       </c>
-      <c r="BA23">
-        <v>0.5307863054724322</v>
-      </c>
     </row>
-    <row r="24" spans="1:53">
+    <row r="24" spans="1:52">
       <c r="A24" s="1">
         <v>41547</v>
       </c>
-      <c r="E24">
-        <v>-0.1611521230610529</v>
-      </c>
-      <c r="F24">
-        <v>-0.319381496574243</v>
-      </c>
-      <c r="G24">
-        <v>0.006932197142995159</v>
-      </c>
-      <c r="H24">
-        <v>0.2651421770329878</v>
-      </c>
-      <c r="I24">
-        <v>0.243639787105311</v>
-      </c>
-      <c r="J24">
-        <v>0.2288410476809929</v>
-      </c>
       <c r="K24">
-        <v>0.5424560602610171</v>
+        <v>0.4153524882170765</v>
       </c>
       <c r="L24">
-        <v>0.558169387289837</v>
+        <v>0.4256797258360385</v>
       </c>
       <c r="M24">
         <v>3.614932423215066</v>
@@ -4154,31 +3812,16 @@
       <c r="AZ24">
         <v>3.614932423215066</v>
       </c>
-      <c r="BA24">
-        <v>3.614932423215066</v>
-      </c>
     </row>
-    <row r="25" spans="1:53">
+    <row r="25" spans="1:52">
       <c r="A25" s="1">
         <v>41639</v>
       </c>
-      <c r="G25">
-        <v>0.009485422992910414</v>
-      </c>
-      <c r="H25">
-        <v>0.2650670731736547</v>
-      </c>
-      <c r="I25">
-        <v>0.2286895631380773</v>
-      </c>
-      <c r="J25">
-        <v>0.2084563903658811</v>
-      </c>
       <c r="K25">
-        <v>0.5656255759392366</v>
+        <v>0.3975115372804873</v>
       </c>
       <c r="L25">
-        <v>0.5581754798044614</v>
+        <v>0.403373036422231</v>
       </c>
       <c r="M25">
         <v>3.220914903403639</v>
@@ -4300,34 +3943,19 @@
       <c r="AZ25">
         <v>3.220914903403639</v>
       </c>
-      <c r="BA25">
-        <v>3.220914903403639</v>
-      </c>
     </row>
-    <row r="26" spans="1:53">
+    <row r="26" spans="1:52">
       <c r="A26" s="1">
         <v>41729</v>
       </c>
-      <c r="G26">
-        <v>0.009825346695294244</v>
-      </c>
-      <c r="H26">
-        <v>0.2650789265706369</v>
-      </c>
-      <c r="I26">
-        <v>0.2284397860815932</v>
-      </c>
-      <c r="J26">
-        <v>0.2089566122473051</v>
-      </c>
       <c r="K26">
-        <v>0.5657163696486549</v>
+        <v>0.3897615758135025</v>
       </c>
       <c r="L26">
-        <v>0.5584310866045001</v>
+        <v>0.3948932776813043</v>
       </c>
       <c r="M26">
-        <v>1.171454252931213</v>
+        <v>1.375122543032225</v>
       </c>
       <c r="N26">
         <v>0.5259948390972795</v>
@@ -4446,34 +4074,19 @@
       <c r="AZ26">
         <v>0.5259948390972795</v>
       </c>
-      <c r="BA26">
-        <v>0.5259948390972795</v>
-      </c>
     </row>
-    <row r="27" spans="1:53">
+    <row r="27" spans="1:52">
       <c r="A27" s="1">
         <v>41820</v>
       </c>
-      <c r="G27">
-        <v>0.01021500554085203</v>
-      </c>
-      <c r="H27">
-        <v>0.2650738768242577</v>
-      </c>
-      <c r="I27">
-        <v>0.2278705395131385</v>
-      </c>
-      <c r="J27">
-        <v>0.2084414345629045</v>
-      </c>
       <c r="K27">
-        <v>0.4261703097446162</v>
+        <v>0.3881035385137495</v>
       </c>
       <c r="L27">
-        <v>0.4332713120545441</v>
+        <v>0.3928286045084762</v>
       </c>
       <c r="M27">
-        <v>0.3891881756981519</v>
+        <v>1.036766712328028</v>
       </c>
       <c r="N27">
         <v>0.6824355029599474</v>
@@ -4592,37 +4205,22 @@
       <c r="AZ27">
         <v>0.6824355029599474</v>
       </c>
-      <c r="BA27">
-        <v>0.6824355029599474</v>
-      </c>
     </row>
-    <row r="28" spans="1:53">
+    <row r="28" spans="1:52">
       <c r="A28" s="1">
         <v>41912</v>
       </c>
-      <c r="G28">
-        <v>0.01027605652108545</v>
-      </c>
-      <c r="H28">
-        <v>0.2650748276390178</v>
-      </c>
-      <c r="I28">
-        <v>0.2278594859268122</v>
-      </c>
-      <c r="J28">
-        <v>0.2084599310816207</v>
-      </c>
       <c r="K28">
-        <v>0.41657485246156</v>
+        <v>0.3875015967280661</v>
       </c>
       <c r="L28">
-        <v>0.4243518165146791</v>
+        <v>0.3921257255238202</v>
       </c>
       <c r="M28">
-        <v>0.5711818380382852</v>
+        <v>0.8279968353309382</v>
       </c>
       <c r="N28">
-        <v>0.6788814428255137</v>
+        <v>0.6569198354092339</v>
       </c>
       <c r="O28">
         <v>-2.447111617029435</v>
@@ -4738,31 +4336,22 @@
       <c r="AZ28">
         <v>-2.447111617029435</v>
       </c>
-      <c r="BA28">
-        <v>-2.447111617029435</v>
-      </c>
     </row>
-    <row r="29" spans="1:53">
+    <row r="29" spans="1:52">
       <c r="A29" s="1">
         <v>42004</v>
       </c>
-      <c r="I29">
-        <v>0.2278378070107994</v>
-      </c>
-      <c r="J29">
-        <v>0.208446842936269</v>
-      </c>
       <c r="K29">
-        <v>0.4073745498514295</v>
+        <v>0.3873556989487407</v>
       </c>
       <c r="L29">
-        <v>0.4153210929005642</v>
+        <v>0.3919404240160375</v>
       </c>
       <c r="M29">
-        <v>0.6286173499290442</v>
+        <v>0.7654185384065008</v>
       </c>
       <c r="N29">
-        <v>0.7225636420433119</v>
+        <v>0.6612231019434047</v>
       </c>
       <c r="O29">
         <v>0.5166694479245422</v>
@@ -4878,34 +4467,25 @@
       <c r="AZ29">
         <v>0.5166694479245422</v>
       </c>
-      <c r="BA29">
-        <v>0.5166694479245422</v>
-      </c>
     </row>
-    <row r="30" spans="1:53">
+    <row r="30" spans="1:52">
       <c r="A30" s="1">
         <v>42094</v>
       </c>
-      <c r="I30">
-        <v>0.2278373274388295</v>
-      </c>
-      <c r="J30">
-        <v>0.2084474574761183</v>
-      </c>
       <c r="K30">
-        <v>0.4061543178160629</v>
+        <v>0.3873077607289917</v>
       </c>
       <c r="L30">
-        <v>0.4140780956087748</v>
+        <v>0.3918811609781434</v>
       </c>
       <c r="M30">
-        <v>0.6288359190683224</v>
+        <v>0.7377787920854525</v>
       </c>
       <c r="N30">
-        <v>0.7233856008953126</v>
+        <v>0.6605419420355083</v>
       </c>
       <c r="O30">
-        <v>0.6144410025243445</v>
+        <v>0.3575426596465543</v>
       </c>
       <c r="P30">
         <v>0.02799823082109754</v>
@@ -5018,34 +4598,25 @@
       <c r="AZ30">
         <v>0.02799823082109754</v>
       </c>
-      <c r="BA30">
-        <v>0.02799823082109754</v>
-      </c>
     </row>
-    <row r="31" spans="1:53">
+    <row r="31" spans="1:52">
       <c r="A31" s="1">
         <v>42185</v>
       </c>
-      <c r="I31">
-        <v>0.2278365016692332</v>
-      </c>
-      <c r="J31">
-        <v>0.2084471232866128</v>
-      </c>
       <c r="K31">
-        <v>0.4055073118206693</v>
+        <v>0.387295270784756</v>
       </c>
       <c r="L31">
-        <v>0.4133836967595417</v>
+        <v>0.3918648006663542</v>
       </c>
       <c r="M31">
-        <v>0.6594832956274514</v>
+        <v>0.7280225341059696</v>
       </c>
       <c r="N31">
-        <v>0.6779311981478835</v>
+        <v>0.6606633412921782</v>
       </c>
       <c r="O31">
-        <v>0.8862767946391017</v>
+        <v>0.5037299019102566</v>
       </c>
       <c r="P31">
         <v>0.7434723928571856</v>
@@ -5158,37 +4729,25 @@
       <c r="AZ31">
         <v>0.7434723928571856</v>
       </c>
-      <c r="BA31">
-        <v>0.7434723928571856</v>
-      </c>
     </row>
-    <row r="32" spans="1:53">
+    <row r="32" spans="1:52">
       <c r="A32" s="1">
         <v>42277</v>
       </c>
-      <c r="I32">
-        <v>0.2278364811759447</v>
-      </c>
-      <c r="J32">
-        <v>0.208447142532651</v>
-      </c>
-      <c r="K32">
-        <v>0.4053881193515568</v>
-      </c>
       <c r="L32">
-        <v>0.4132507536439852</v>
+        <v>0.3918597517977612</v>
       </c>
       <c r="M32">
-        <v>0.6644280027814712</v>
+        <v>0.7241194937823662</v>
       </c>
       <c r="N32">
-        <v>0.671325903587542</v>
+        <v>0.6606461105818364</v>
       </c>
       <c r="O32">
-        <v>0.9167686939480291</v>
+        <v>0.5140179776728026</v>
       </c>
       <c r="P32">
-        <v>0.8036493619276257</v>
+        <v>0.5200589560528843</v>
       </c>
       <c r="Q32">
         <v>0.05893999533155636</v>
@@ -5298,31 +4857,25 @@
       <c r="AZ32">
         <v>0.05893999533155636</v>
       </c>
-      <c r="BA32">
-        <v>0.05893999533155636</v>
-      </c>
     </row>
-    <row r="33" spans="1:53">
+    <row r="33" spans="1:52">
       <c r="A33" s="1">
         <v>42369</v>
       </c>
-      <c r="K33">
-        <v>0.4053403223998316</v>
-      </c>
       <c r="L33">
-        <v>0.4131946913194416</v>
+        <v>0.3918583203240959</v>
       </c>
       <c r="M33">
-        <v>0.6670213133751617</v>
+        <v>0.7226657213019614</v>
       </c>
       <c r="N33">
-        <v>0.6680226658450114</v>
+        <v>0.6606498256735963</v>
       </c>
       <c r="O33">
-        <v>0.9600127617940331</v>
+        <v>0.5236184571605861</v>
       </c>
       <c r="P33">
-        <v>0.8668337571527758</v>
+        <v>0.5388341927072999</v>
       </c>
       <c r="Q33">
         <v>0.08345847455619548</v>
@@ -5432,34 +4985,25 @@
       <c r="AZ33">
         <v>0.08345847455619548</v>
       </c>
-      <c r="BA33">
-        <v>0.08345847455619548</v>
-      </c>
     </row>
-    <row r="34" spans="1:53">
+    <row r="34" spans="1:52">
       <c r="A34" s="1">
         <v>42460</v>
       </c>
-      <c r="K34">
-        <v>0.405329739392459</v>
-      </c>
-      <c r="L34">
-        <v>0.4131817725205327</v>
-      </c>
       <c r="M34">
-        <v>0.6677286650520322</v>
+        <v>0.7221019658615924</v>
       </c>
       <c r="N34">
-        <v>0.667199938224328</v>
+        <v>0.6606494839887519</v>
       </c>
       <c r="O34">
-        <v>0.9600671730357675</v>
+        <v>0.525463726254872</v>
       </c>
       <c r="P34">
-        <v>0.9249338030575416</v>
+        <v>0.5263938983809554</v>
       </c>
       <c r="Q34">
-        <v>0.2478381909510432</v>
+        <v>0.4076903193892036</v>
       </c>
       <c r="R34">
         <v>0.8395897642787418</v>
@@ -5566,34 +5110,25 @@
       <c r="AZ34">
         <v>0.8395897642787418</v>
       </c>
-      <c r="BA34">
-        <v>0.8395897642787418</v>
-      </c>
     </row>
-    <row r="35" spans="1:53">
+    <row r="35" spans="1:52">
       <c r="A35" s="1">
         <v>42551</v>
       </c>
-      <c r="K35">
-        <v>0.4053260861239772</v>
-      </c>
-      <c r="L35">
-        <v>0.4131770902680577</v>
-      </c>
       <c r="M35">
-        <v>0.6679946026198631</v>
+        <v>0.721888294471412</v>
       </c>
       <c r="N35">
-        <v>0.6669097667126367</v>
+        <v>0.6606496248183669</v>
       </c>
       <c r="O35">
-        <v>0.6609964603812228</v>
+        <v>0.5262483320478671</v>
       </c>
       <c r="P35">
-        <v>0.6296168067735319</v>
+        <v>0.526038069310703</v>
       </c>
       <c r="Q35">
-        <v>0.337517971417995</v>
+        <v>0.4513875665919894</v>
       </c>
       <c r="R35">
         <v>0.6563473872696477</v>
@@ -5700,37 +5235,25 @@
       <c r="AZ35">
         <v>0.6563473872696477</v>
       </c>
-      <c r="BA35">
-        <v>0.6563473872696477</v>
-      </c>
     </row>
-    <row r="36" spans="1:53">
+    <row r="36" spans="1:52">
       <c r="A36" s="1">
         <v>42643</v>
       </c>
-      <c r="K36">
-        <v>0.4053251871002698</v>
-      </c>
-      <c r="L36">
-        <v>0.4131758895458355</v>
-      </c>
-      <c r="M36">
-        <v>0.6680788872447362</v>
-      </c>
       <c r="N36">
-        <v>0.6668250259683544</v>
+        <v>0.6606496278624229</v>
       </c>
       <c r="O36">
-        <v>0.6203147707141639</v>
+        <v>0.5264557892088542</v>
       </c>
       <c r="P36">
-        <v>0.5946995411728259</v>
+        <v>0.525164588412572</v>
       </c>
       <c r="Q36">
-        <v>0.5064407828060808</v>
+        <v>0.478948017637131</v>
       </c>
       <c r="R36">
-        <v>0.7128866015186759</v>
+        <v>0.5518721998620388</v>
       </c>
       <c r="S36">
         <v>-0.6309168039368558</v>
@@ -5834,31 +5357,25 @@
       <c r="AZ36">
         <v>-0.6309168039368558</v>
       </c>
-      <c r="BA36">
-        <v>-0.6309168039368558</v>
-      </c>
     </row>
-    <row r="37" spans="1:53">
+    <row r="37" spans="1:52">
       <c r="A37" s="1">
         <v>42735</v>
       </c>
-      <c r="M37">
-        <v>0.6681080489273659</v>
-      </c>
       <c r="N37">
-        <v>0.6667977124851148</v>
+        <v>0.6606496355398238</v>
       </c>
       <c r="O37">
-        <v>0.5994686586342113</v>
+        <v>0.5265273764446741</v>
       </c>
       <c r="P37">
-        <v>0.5704321679613585</v>
+        <v>0.5250282357746662</v>
       </c>
       <c r="Q37">
-        <v>0.6175810576904581</v>
+        <v>0.4854723976364575</v>
       </c>
       <c r="R37">
-        <v>0.7438026122411827</v>
+        <v>0.5264595444883685</v>
       </c>
       <c r="S37">
         <v>0.6494255158807789</v>
@@ -5962,34 +5479,25 @@
       <c r="AZ37">
         <v>0.6494255158807789</v>
       </c>
-      <c r="BA37">
-        <v>0.6494255158807789</v>
-      </c>
     </row>
-    <row r="38" spans="1:53">
+    <row r="38" spans="1:52">
       <c r="A38" s="1">
         <v>42825</v>
       </c>
-      <c r="M38">
-        <v>0.6681176853592872</v>
-      </c>
-      <c r="N38">
-        <v>0.666789360664616</v>
-      </c>
       <c r="O38">
-        <v>0.594549995377881</v>
+        <v>0.5265485097270377</v>
       </c>
       <c r="P38">
-        <v>0.5649176775617645</v>
+        <v>0.5249525384739927</v>
       </c>
       <c r="Q38">
-        <v>0.6208163030755998</v>
+        <v>0.4881794602077355</v>
       </c>
       <c r="R38">
-        <v>0.5516421641742255</v>
+        <v>0.5163609821686368</v>
       </c>
       <c r="S38">
-        <v>0.7724317667485678</v>
+        <v>0.430868917556494</v>
       </c>
       <c r="T38">
         <v>1.43264353805759</v>
@@ -6090,34 +5598,25 @@
       <c r="AZ38">
         <v>1.43264353805759</v>
       </c>
-      <c r="BA38">
-        <v>1.43264353805759</v>
-      </c>
     </row>
-    <row r="39" spans="1:53">
+    <row r="39" spans="1:52">
       <c r="A39" s="1">
         <v>42916</v>
       </c>
-      <c r="M39">
-        <v>0.6681209465374304</v>
-      </c>
-      <c r="N39">
-        <v>0.6667867347969921</v>
-      </c>
       <c r="O39">
-        <v>0.592813592172755</v>
+        <v>0.5265553318679482</v>
       </c>
       <c r="P39">
-        <v>0.5625760893927632</v>
+        <v>0.5249337025903775</v>
       </c>
       <c r="Q39">
-        <v>0.5167354494528774</v>
+        <v>0.4889710445189562</v>
       </c>
       <c r="R39">
-        <v>0.6273934612667631</v>
+        <v>0.5134010514807239</v>
       </c>
       <c r="S39">
-        <v>0.7692710224212647</v>
+        <v>0.4834609370390991</v>
       </c>
       <c r="T39">
         <v>0.7380307906906296</v>
@@ -6218,37 +5717,25 @@
       <c r="AZ39">
         <v>0.7380307906906296</v>
       </c>
-      <c r="BA39">
-        <v>0.7380307906906296</v>
-      </c>
     </row>
-    <row r="40" spans="1:53">
+    <row r="40" spans="1:52">
       <c r="A40" s="1">
         <v>43008</v>
       </c>
-      <c r="M40">
-        <v>0.6681220365530709</v>
-      </c>
-      <c r="N40">
-        <v>0.6667859213273677</v>
-      </c>
-      <c r="O40">
-        <v>0.5923255508788439</v>
-      </c>
       <c r="P40">
-        <v>0.5619010197410006</v>
+        <v>0.5249262370227846</v>
       </c>
       <c r="Q40">
-        <v>0.5033682710584223</v>
+        <v>0.4892564855607481</v>
       </c>
       <c r="R40">
-        <v>0.628129929716664</v>
+        <v>0.51236019523924</v>
       </c>
       <c r="S40">
-        <v>0.7695612873212667</v>
+        <v>0.4763765375096422</v>
       </c>
       <c r="T40">
-        <v>0.7376561085117714</v>
+        <v>0.591886823352275</v>
       </c>
       <c r="U40">
         <v>0.93278395318805</v>
@@ -6346,31 +5833,25 @@
       <c r="AZ40">
         <v>0.93278395318805</v>
       </c>
-      <c r="BA40">
-        <v>0.93278395318805</v>
-      </c>
     </row>
-    <row r="41" spans="1:53">
+    <row r="41" spans="1:52">
       <c r="A41" s="1">
         <v>43100</v>
       </c>
-      <c r="O41">
-        <v>0.5921702585746463</v>
-      </c>
       <c r="P41">
-        <v>0.5616562982800857</v>
+        <v>0.5249240209057161</v>
       </c>
       <c r="Q41">
-        <v>0.4945274717084783</v>
+        <v>0.4893469507286592</v>
       </c>
       <c r="R41">
-        <v>0.6674945835057713</v>
+        <v>0.5120328399749707</v>
       </c>
       <c r="S41">
-        <v>0.781901784070385</v>
+        <v>0.4787713285493927</v>
       </c>
       <c r="T41">
-        <v>0.7752207669770286</v>
+        <v>0.5375444608584986</v>
       </c>
       <c r="U41">
         <v>0.737240821947637</v>
@@ -6468,34 +5949,25 @@
       <c r="AZ41">
         <v>0.737240821947637</v>
       </c>
-      <c r="BA41">
-        <v>0.737240821947637</v>
-      </c>
     </row>
-    <row r="42" spans="1:53">
+    <row r="42" spans="1:52">
       <c r="A42" s="1">
         <v>43190</v>
       </c>
-      <c r="O42">
-        <v>0.5921241462769347</v>
-      </c>
-      <c r="P42">
-        <v>0.5615791653795383</v>
-      </c>
       <c r="Q42">
-        <v>0.4924619986707973</v>
+        <v>0.4893779559204662</v>
       </c>
       <c r="R42">
-        <v>0.6678010111104555</v>
+        <v>0.5119226956432122</v>
       </c>
       <c r="S42">
-        <v>0.7821045013343593</v>
+        <v>0.4786271636950695</v>
       </c>
       <c r="T42">
-        <v>0.7755165880529091</v>
+        <v>0.5230966869142841</v>
       </c>
       <c r="U42">
-        <v>0.7662744199943035</v>
+        <v>0.5809034774512165</v>
       </c>
       <c r="V42">
         <v>1.113688352880345</v>
@@ -6590,37 +6062,28 @@
       <c r="AZ42">
         <v>1.113688352880345</v>
       </c>
-      <c r="BA42">
-        <v>1.113688352880345</v>
-      </c>
     </row>
-    <row r="43" spans="1:53">
+    <row r="43" spans="1:52">
       <c r="A43" s="1">
         <v>43281</v>
       </c>
-      <c r="O43">
-        <v>0.5921099226214085</v>
-      </c>
-      <c r="P43">
-        <v>0.5615527249514496</v>
-      </c>
       <c r="Q43">
-        <v>0.4915896296246571</v>
+        <v>0.4893880850659059</v>
       </c>
       <c r="R43">
-        <v>0.5631811875984641</v>
+        <v>0.5118871304538901</v>
       </c>
       <c r="S43">
-        <v>0.569354083764499</v>
+        <v>0.478758311619344</v>
       </c>
       <c r="T43">
-        <v>0.6448074495218208</v>
+        <v>0.5184601591817948</v>
       </c>
       <c r="U43">
-        <v>0.7712878137015906</v>
+        <v>0.5500856382393864</v>
       </c>
       <c r="V43">
-        <v>0.9080681459062703</v>
+        <v>0.6332353202439329</v>
       </c>
       <c r="W43">
         <v>0.9738389087563917</v>
@@ -6712,40 +6175,28 @@
       <c r="AZ43">
         <v>0.9738389087563917</v>
       </c>
-      <c r="BA43">
-        <v>0.9738389087563917</v>
-      </c>
     </row>
-    <row r="44" spans="1:53">
+    <row r="44" spans="1:52">
       <c r="A44" s="1">
         <v>43373</v>
       </c>
-      <c r="O44">
-        <v>0.5921056268145495</v>
-      </c>
-      <c r="P44">
-        <v>0.5615441116222006</v>
-      </c>
-      <c r="Q44">
-        <v>0.4913349282634432</v>
-      </c>
       <c r="R44">
-        <v>0.5496768485677495</v>
+        <v>0.5118753560828084</v>
       </c>
       <c r="S44">
-        <v>0.5423501598369613</v>
+        <v>0.47876558617626</v>
       </c>
       <c r="T44">
-        <v>0.6451379409190565</v>
+        <v>0.5171258519502598</v>
       </c>
       <c r="U44">
-        <v>0.7779498483449885</v>
+        <v>0.5375594758925846</v>
       </c>
       <c r="V44">
-        <v>0.7566849908938593</v>
+        <v>0.5925015446858528</v>
       </c>
       <c r="W44">
-        <v>0.8582147780612672</v>
+        <v>0.6461802184664399</v>
       </c>
       <c r="X44">
         <v>1.449096432937026</v>
@@ -6834,37 +6285,31 @@
       <c r="AZ44">
         <v>1.449096432937026</v>
       </c>
-      <c r="BA44">
-        <v>1.449096432937026</v>
-      </c>
     </row>
-    <row r="45" spans="1:53">
+    <row r="45" spans="1:52">
       <c r="A45" s="1">
         <v>43465</v>
       </c>
-      <c r="Q45">
-        <v>0.4912422032434184</v>
-      </c>
       <c r="R45">
-        <v>0.540947377636724</v>
+        <v>0.5118715168386987</v>
       </c>
       <c r="S45">
-        <v>0.5260161759384705</v>
+        <v>0.4787746473078879</v>
       </c>
       <c r="T45">
-        <v>0.6571457042417137</v>
+        <v>0.5167172783493171</v>
       </c>
       <c r="U45">
-        <v>0.6730414478020066</v>
+        <v>0.5342605058768004</v>
       </c>
       <c r="V45">
-        <v>0.7422540712829004</v>
+        <v>0.5598804796108935</v>
       </c>
       <c r="W45">
-        <v>0.8344196445528382</v>
+        <v>0.5951553325615794</v>
       </c>
       <c r="X45">
-        <v>0.4818206891472414</v>
+        <v>0.7244004430130675</v>
       </c>
       <c r="Y45">
         <v>0.7453671605556593</v>
@@ -6950,40 +6395,31 @@
       <c r="AZ45">
         <v>0.7453671605556593</v>
       </c>
-      <c r="BA45">
-        <v>0.7453671605556593</v>
-      </c>
     </row>
-    <row r="46" spans="1:53">
+    <row r="46" spans="1:52">
       <c r="A46" s="1">
         <v>43555</v>
       </c>
-      <c r="Q46">
-        <v>0.4912127337299375</v>
-      </c>
-      <c r="R46">
-        <v>0.5389174143649721</v>
-      </c>
       <c r="S46">
-        <v>0.5223040101624986</v>
+        <v>0.4787762222845079</v>
       </c>
       <c r="T46">
-        <v>0.6575286109465424</v>
+        <v>0.5165965575298815</v>
       </c>
       <c r="U46">
-        <v>0.6733048709582903</v>
+        <v>0.5331501516292253</v>
       </c>
       <c r="V46">
-        <v>0.6056357471380807</v>
+        <v>0.5533409324870047</v>
       </c>
       <c r="W46">
-        <v>0.8367066861524535</v>
+        <v>0.5696309822925398</v>
       </c>
       <c r="X46">
-        <v>0.4825903356696699</v>
+        <v>0.6567302089184613</v>
       </c>
       <c r="Y46">
-        <v>0.5964643102394973</v>
+        <v>0.6601254014149779</v>
       </c>
       <c r="Z46">
         <v>0.8</v>
@@ -7066,43 +6502,34 @@
       <c r="AZ46">
         <v>0.8</v>
       </c>
-      <c r="BA46">
-        <v>0.8</v>
-      </c>
     </row>
-    <row r="47" spans="1:53">
+    <row r="47" spans="1:52">
       <c r="A47" s="1">
         <v>43646</v>
       </c>
-      <c r="Q47">
-        <v>0.4912025649572918</v>
-      </c>
-      <c r="R47">
-        <v>0.5380722710477135</v>
-      </c>
       <c r="S47">
-        <v>0.5208418426970087</v>
+        <v>0.4787769811549648</v>
       </c>
       <c r="T47">
-        <v>0.5654574044350866</v>
+        <v>0.5165601525096563</v>
       </c>
       <c r="U47">
-        <v>0.5772555503093409</v>
+        <v>0.5328266575721504</v>
       </c>
       <c r="V47">
-        <v>0.6057317098380395</v>
+        <v>0.550637792736683</v>
       </c>
       <c r="W47">
-        <v>0.5542329236227488</v>
+        <v>0.5633499360644081</v>
       </c>
       <c r="X47">
-        <v>0.6523204076899418</v>
+        <v>0.6029261936006861</v>
       </c>
       <c r="Y47">
-        <v>0.6645473978097272</v>
+        <v>0.6052019136220743</v>
       </c>
       <c r="Z47">
-        <v>0.7</v>
+        <v>0.6274485088723237</v>
       </c>
       <c r="AA47">
         <v>0.8101615090027252</v>
@@ -7182,46 +6609,34 @@
       <c r="AZ47">
         <v>0.8101615090027252</v>
       </c>
-      <c r="BA47">
-        <v>0.8101615090027252</v>
-      </c>
     </row>
-    <row r="48" spans="1:53">
+    <row r="48" spans="1:52">
       <c r="A48" s="1">
         <v>43738</v>
       </c>
-      <c r="Q48">
-        <v>0.4911992283402341</v>
-      </c>
-      <c r="R48">
-        <v>0.5378275084352283</v>
-      </c>
-      <c r="S48">
-        <v>0.5204309984719087</v>
-      </c>
       <c r="T48">
-        <v>0.5535947378115422</v>
+        <v>0.5165493019564236</v>
       </c>
       <c r="U48">
-        <v>0.5647984058377991</v>
+        <v>0.5327242371580261</v>
       </c>
       <c r="V48">
-        <v>0.5881173499186332</v>
+        <v>0.5499157689816263</v>
       </c>
       <c r="W48">
-        <v>0.5636629582036647</v>
+        <v>0.5610590358124826</v>
       </c>
       <c r="X48">
-        <v>0.6530272688590486</v>
+        <v>0.5915453351744824</v>
       </c>
       <c r="Y48">
-        <v>0.665769779831237</v>
+        <v>0.5925713042262389</v>
       </c>
       <c r="Z48">
-        <v>0.7</v>
+        <v>0.6077540518382855</v>
       </c>
       <c r="AA48">
-        <v>0.7073931888332226</v>
+        <v>0.6365490372265011</v>
       </c>
       <c r="AB48">
         <v>0.7</v>
@@ -7298,46 +6713,37 @@
       <c r="AZ48">
         <v>0.7</v>
       </c>
-      <c r="BA48">
-        <v>0.7</v>
-      </c>
     </row>
-    <row r="49" spans="1:53">
+    <row r="49" spans="1:52">
       <c r="A49" s="1">
         <v>43830</v>
       </c>
-      <c r="R49">
-        <v>0.5377394507264397</v>
-      </c>
-      <c r="S49">
-        <v>0.5202901360027036</v>
-      </c>
       <c r="T49">
-        <v>0.5470729522729348</v>
+        <v>0.5165460461608441</v>
       </c>
       <c r="U49">
-        <v>0.5577307200791305</v>
+        <v>0.5326933465021445</v>
       </c>
       <c r="V49">
-        <v>0.5639948157054135</v>
+        <v>0.5496684680825973</v>
       </c>
       <c r="W49">
-        <v>0.5943457971663975</v>
+        <v>0.5603975140531749</v>
       </c>
       <c r="X49">
-        <v>0.6532727756092953</v>
+        <v>0.5866997588514079</v>
       </c>
       <c r="Y49">
-        <v>0.6660388891269946</v>
+        <v>0.5874834828413364</v>
       </c>
       <c r="Z49">
-        <v>0.7</v>
+        <v>0.5942412929409375</v>
       </c>
       <c r="AA49">
-        <v>0.6805888739909136</v>
+        <v>0.6138560499598729</v>
       </c>
       <c r="AB49">
-        <v>0.6</v>
+        <v>0.623839279060733</v>
       </c>
       <c r="AC49">
         <v>0.8264499850772893</v>
@@ -7411,49 +6817,37 @@
       <c r="AZ49">
         <v>0.8264499850772893</v>
       </c>
-      <c r="BA49">
-        <v>0.8264499850772893</v>
-      </c>
     </row>
-    <row r="50" spans="1:53">
+    <row r="50" spans="1:52">
       <c r="A50" s="1">
         <v>43921</v>
       </c>
-      <c r="R50">
-        <v>0.5377117283672879</v>
-      </c>
-      <c r="S50">
-        <v>0.5202473277876889</v>
-      </c>
-      <c r="T50">
-        <v>0.5455881871447472</v>
-      </c>
       <c r="U50">
-        <v>0.5561061205003087</v>
+        <v>0.5326837639166658</v>
       </c>
       <c r="V50">
-        <v>0.5645221577616581</v>
+        <v>0.5495953683117346</v>
       </c>
       <c r="W50">
-        <v>0.5949746708176207</v>
+        <v>0.5601790697706092</v>
       </c>
       <c r="X50">
-        <v>0.6535179153677859</v>
+        <v>0.5853483962622003</v>
       </c>
       <c r="Y50">
-        <v>0.6663075925577857</v>
+        <v>0.5860208220520248</v>
       </c>
       <c r="Z50">
-        <v>0.7</v>
+        <v>0.5911885269171652</v>
       </c>
       <c r="AA50">
-        <v>0.6674921729264724</v>
+        <v>0.5998165379330228</v>
       </c>
       <c r="AB50">
-        <v>0.6</v>
+        <v>0.6066061439443067</v>
       </c>
       <c r="AC50">
-        <v>0.6069572932079836</v>
+        <v>0.6383601027102496</v>
       </c>
       <c r="AD50">
         <v>0.2694717384078302</v>
@@ -7524,52 +6918,40 @@
       <c r="AZ50">
         <v>0.2694717384078302</v>
       </c>
-      <c r="BA50">
-        <v>0.2694717384078302</v>
-      </c>
     </row>
-    <row r="51" spans="1:53">
+    <row r="51" spans="1:52">
       <c r="A51" s="1">
         <v>44012</v>
       </c>
-      <c r="R51">
-        <v>0.5377022664239328</v>
-      </c>
-      <c r="S51">
-        <v>0.5202333474203812</v>
-      </c>
-      <c r="T51">
-        <v>0.5450430400268638</v>
-      </c>
       <c r="U51">
-        <v>0.5554941239839795</v>
+        <v>0.5326808395642912</v>
       </c>
       <c r="V51">
-        <v>0.5662039376373252</v>
+        <v>0.5495718321744945</v>
       </c>
       <c r="W51">
-        <v>0.5804088423040777</v>
+        <v>0.5601123938590912</v>
       </c>
       <c r="X51">
-        <v>0.5952331402543498</v>
+        <v>0.584868309374058</v>
       </c>
       <c r="Y51">
-        <v>0.5923719208076079</v>
+        <v>0.585510290321742</v>
       </c>
       <c r="Z51">
-        <v>0.5</v>
+        <v>0.5899277910474662</v>
       </c>
       <c r="AA51">
-        <v>0.4786476743451828</v>
+        <v>0.5964930036220326</v>
       </c>
       <c r="AB51">
-        <v>0.5</v>
+        <v>0.5994570689686542</v>
       </c>
       <c r="AC51">
-        <v>0.4615803504301965</v>
+        <v>0.6211095302529466</v>
       </c>
       <c r="AD51">
-        <v>0.4790197750679681</v>
+        <v>0.5637409416066795</v>
       </c>
       <c r="AE51">
         <v>0.9709779412929294</v>
@@ -7637,55 +7019,40 @@
       <c r="AZ51">
         <v>0.9709779412929294</v>
       </c>
-      <c r="BA51">
-        <v>0.9709779412929294</v>
-      </c>
     </row>
-    <row r="52" spans="1:53">
+    <row r="52" spans="1:52">
       <c r="A52" s="1">
         <v>44104</v>
       </c>
-      <c r="R52">
-        <v>0.5376991926740736</v>
-      </c>
-      <c r="S52">
-        <v>0.5202289754833684</v>
-      </c>
-      <c r="T52">
-        <v>0.5448921977799999</v>
-      </c>
-      <c r="U52">
-        <v>0.5553224712343631</v>
-      </c>
       <c r="V52">
-        <v>0.5664557585710209</v>
+        <v>0.5495646255919093</v>
       </c>
       <c r="W52">
-        <v>0.5785137361133543</v>
+        <v>0.5600910925118281</v>
       </c>
       <c r="X52">
-        <v>0.5875388759479933</v>
+        <v>0.5847206032096022</v>
       </c>
       <c r="Y52">
-        <v>0.5921635512616348</v>
+        <v>0.5853514523357612</v>
       </c>
       <c r="Z52">
-        <v>0.5</v>
+        <v>0.5895663974626759</v>
       </c>
       <c r="AA52">
-        <v>0.4795892681231635</v>
+        <v>0.5951576042970329</v>
       </c>
       <c r="AB52">
-        <v>0.5</v>
+        <v>0.5974022491929292</v>
       </c>
       <c r="AC52">
-        <v>0.4620255922981471</v>
+        <v>0.6067704364286015</v>
       </c>
       <c r="AD52">
-        <v>0.4777114241629761</v>
+        <v>0.5677690476547107</v>
       </c>
       <c r="AE52">
-        <v>-0.3951067386682467</v>
+        <v>0.6298822150935918</v>
       </c>
       <c r="AF52">
         <v>-6</v>
@@ -7750,52 +7117,40 @@
       <c r="AZ52">
         <v>-6</v>
       </c>
-      <c r="BA52">
-        <v>-6</v>
-      </c>
     </row>
-    <row r="53" spans="1:53">
+    <row r="53" spans="1:52">
       <c r="A53" s="1">
         <v>44196</v>
       </c>
-      <c r="T53">
-        <v>0.544843179342028</v>
-      </c>
-      <c r="U53">
-        <v>0.5552654555290714</v>
-      </c>
-      <c r="V53">
-        <v>0.5665873118098071</v>
-      </c>
       <c r="W53">
-        <v>0.5773918083128403</v>
+        <v>0.5600844660732387</v>
       </c>
       <c r="X53">
-        <v>0.5830376389750327</v>
+        <v>0.5846711878409819</v>
       </c>
       <c r="Y53">
-        <v>0.5925698485446134</v>
+        <v>0.5852986059230014</v>
       </c>
       <c r="Z53">
-        <v>0.5</v>
+        <v>0.5894385040633727</v>
       </c>
       <c r="AA53">
-        <v>0.480000094830217</v>
+        <v>0.5947677348740692</v>
       </c>
       <c r="AB53">
-        <v>0.5</v>
+        <v>0.5966723652401188</v>
       </c>
       <c r="AC53">
-        <v>0.462341283985694</v>
+        <v>0.6037374386577433</v>
       </c>
       <c r="AD53">
-        <v>0.4165535904695332</v>
+        <v>0.5870004764256354</v>
       </c>
       <c r="AE53">
-        <v>0.3457232704569719</v>
+        <v>0.6300946216467853</v>
       </c>
       <c r="AF53">
-        <v>1.1</v>
+        <v>-0.3941836453765433</v>
       </c>
       <c r="AG53">
         <v>-0.3941836453765433</v>
@@ -7857,55 +7212,40 @@
       <c r="AZ53">
         <v>-0.3941836453765433</v>
       </c>
-      <c r="BA53">
-        <v>-0.3941836453765433</v>
-      </c>
     </row>
-    <row r="54" spans="1:53">
+    <row r="54" spans="1:52">
       <c r="A54" s="1">
         <v>44286</v>
       </c>
-      <c r="T54">
-        <v>0.5448286762748924</v>
-      </c>
-      <c r="U54">
-        <v>0.5552483119179632</v>
-      </c>
-      <c r="V54">
-        <v>0.5666193390735231</v>
-      </c>
-      <c r="W54">
-        <v>0.5771296896557584</v>
-      </c>
       <c r="X54">
-        <v>0.5819824204821887</v>
+        <v>0.5846554528072397</v>
       </c>
       <c r="Y54">
-        <v>0.5929756788467131</v>
+        <v>0.5852817046867352</v>
       </c>
       <c r="Z54">
-        <v>0.5</v>
+        <v>0.5893985849122353</v>
       </c>
       <c r="AA54">
-        <v>0.4804101345901017</v>
+        <v>0.5946308030668249</v>
       </c>
       <c r="AB54">
-        <v>0.5</v>
+        <v>0.5964438417206223</v>
       </c>
       <c r="AC54">
-        <v>0.4626566331304929</v>
+        <v>0.6024129558222219</v>
       </c>
       <c r="AD54">
-        <v>0.4166659776295916</v>
+        <v>0.5898317411809662</v>
       </c>
       <c r="AE54">
-        <v>0.4236903864317014</v>
+        <v>0.6080522467281011</v>
       </c>
       <c r="AF54">
-        <v>0.9</v>
+        <v>0.3688234523345323</v>
       </c>
       <c r="AG54">
-        <v>0.8165015886790314</v>
+        <v>0.8801590087334432</v>
       </c>
       <c r="AH54">
         <v>0.8801590087334432</v>
@@ -7964,58 +7304,40 @@
       <c r="AZ54">
         <v>0.8801590087334432</v>
       </c>
-      <c r="BA54">
-        <v>0.8801590087334432</v>
-      </c>
     </row>
-    <row r="55" spans="1:53">
+    <row r="55" spans="1:52">
       <c r="A55" s="1">
         <v>44377</v>
       </c>
-      <c r="T55">
-        <v>0.5448241473640095</v>
-      </c>
-      <c r="U55">
-        <v>0.5552428505696317</v>
-      </c>
-      <c r="V55">
-        <v>0.5666312492624046</v>
-      </c>
-      <c r="W55">
-        <v>0.577027862191363</v>
-      </c>
-      <c r="X55">
-        <v>0.5815738237463352</v>
-      </c>
       <c r="Y55">
-        <v>0.7051191129221102</v>
+        <v>0.5852761728301978</v>
       </c>
       <c r="Z55">
-        <v>0.6935829271408209</v>
+        <v>0.589385174093781</v>
       </c>
       <c r="AA55">
-        <v>0.6909074213894455</v>
+        <v>0.5945877195891477</v>
       </c>
       <c r="AB55">
-        <v>0.6917643758788726</v>
+        <v>0.5963668036474714</v>
       </c>
       <c r="AC55">
-        <v>0.3208668783516373</v>
+        <v>0.6020408343264323</v>
       </c>
       <c r="AD55">
-        <v>0.4029365108769696</v>
+        <v>0.5914324749911066</v>
       </c>
       <c r="AE55">
-        <v>0.4039905327815489</v>
+        <v>0.6051464625682778</v>
       </c>
       <c r="AF55">
-        <v>0.9</v>
+        <v>0.5215126732683931</v>
       </c>
       <c r="AG55">
-        <v>0.8755752926232816</v>
+        <v>0.6661547756373424</v>
       </c>
       <c r="AH55">
-        <v>1.287283700333575</v>
+        <v>-3.629169871908772</v>
       </c>
       <c r="AI55">
         <v>-3.629169871908772</v>
@@ -8071,61 +7393,40 @@
       <c r="AZ55">
         <v>-3.629169871908772</v>
       </c>
-      <c r="BA55">
-        <v>-3.629169871908772</v>
-      </c>
     </row>
-    <row r="56" spans="1:53">
+    <row r="56" spans="1:52">
       <c r="A56" s="1">
         <v>44469</v>
       </c>
-      <c r="T56">
-        <v>0.5448227766924101</v>
-      </c>
-      <c r="U56">
-        <v>0.5552411686308616</v>
-      </c>
-      <c r="V56">
-        <v>0.5666346892014176</v>
-      </c>
-      <c r="W56">
-        <v>0.576998686512222</v>
-      </c>
-      <c r="X56">
-        <v>0.5814567131233184</v>
-      </c>
-      <c r="Y56">
-        <v>0.7259722410699202</v>
-      </c>
       <c r="Z56">
-        <v>0.7297356764283816</v>
+        <v>0.5893808606924862</v>
       </c>
       <c r="AA56">
-        <v>0.7302925783013771</v>
+        <v>0.594573261074098</v>
       </c>
       <c r="AB56">
-        <v>0.7276687385283467</v>
+        <v>0.5963419450183821</v>
       </c>
       <c r="AC56">
-        <v>0.3210953086939554</v>
+        <v>0.6019061089730399</v>
       </c>
       <c r="AD56">
-        <v>0.4032615476277357</v>
+        <v>0.5918266812575751</v>
       </c>
       <c r="AE56">
-        <v>0.4042593199474709</v>
+        <v>0.6033353434267114</v>
       </c>
       <c r="AF56">
-        <v>0.8</v>
+        <v>0.5495128185929644</v>
       </c>
       <c r="AG56">
-        <v>0.8475926713922775</v>
+        <v>0.5802215254897423</v>
       </c>
       <c r="AH56">
-        <v>1.127486320425248</v>
+        <v>-0.03116786511127222</v>
       </c>
       <c r="AI56">
-        <v>2.506963683269746</v>
+        <v>0.6879412097722906</v>
       </c>
       <c r="AJ56">
         <v>0.6879412097722906</v>
@@ -8178,58 +7479,40 @@
       <c r="AZ56">
         <v>0.6879412097722906</v>
       </c>
-      <c r="BA56">
-        <v>0.6879412097722906</v>
-      </c>
     </row>
-    <row r="57" spans="1:53">
+    <row r="57" spans="1:52">
       <c r="A57" s="1">
         <v>44561</v>
       </c>
-      <c r="V57">
-        <v>0.5666358384800969</v>
-      </c>
-      <c r="W57">
-        <v>0.5769887299525424</v>
-      </c>
-      <c r="X57">
-        <v>0.5814168026724831</v>
-      </c>
-      <c r="Y57">
-        <v>0.7213968076784474</v>
-      </c>
-      <c r="Z57">
-        <v>0.7223538575974726</v>
-      </c>
       <c r="AA57">
-        <v>0.722355911821677</v>
+        <v>0.5945685905534138</v>
       </c>
       <c r="AB57">
-        <v>0.7204506884645503</v>
+        <v>0.5963337144460367</v>
       </c>
       <c r="AC57">
-        <v>0.3212121583454461</v>
+        <v>0.6018641935274108</v>
       </c>
       <c r="AD57">
-        <v>0.4034294437505537</v>
+        <v>0.5919811505717831</v>
       </c>
       <c r="AE57">
-        <v>0.4044264880465676</v>
+        <v>0.6029074414465223</v>
       </c>
       <c r="AF57">
-        <v>0.5</v>
+        <v>0.5547384212901363</v>
       </c>
       <c r="AG57">
-        <v>0.539582574762477</v>
+        <v>0.5764281226867984</v>
       </c>
       <c r="AH57">
-        <v>0.9028690035243585</v>
+        <v>0.4698994915104449</v>
       </c>
       <c r="AI57">
-        <v>2.231468053493131</v>
+        <v>0.4821009710033287</v>
       </c>
       <c r="AJ57">
-        <v>1.579223146301857</v>
+        <v>1.095591413702294</v>
       </c>
       <c r="AK57">
         <v>1.095591413702294</v>
@@ -8279,61 +7562,40 @@
       <c r="AZ57">
         <v>1.095591413702294</v>
       </c>
-      <c r="BA57">
-        <v>1.095591413702294</v>
-      </c>
     </row>
-    <row r="58" spans="1:53">
+    <row r="58" spans="1:52">
       <c r="A58" s="1">
         <v>44651</v>
       </c>
-      <c r="V58">
-        <v>0.5666361908794398</v>
-      </c>
-      <c r="W58">
-        <v>0.5769856652752122</v>
-      </c>
-      <c r="X58">
-        <v>0.5814045245180548</v>
-      </c>
-      <c r="Y58">
-        <v>0.7189718410834537</v>
-      </c>
-      <c r="Z58">
-        <v>0.7183357346784771</v>
-      </c>
-      <c r="AA58">
-        <v>0.718004947460972</v>
-      </c>
       <c r="AB58">
-        <v>0.7164891410725641</v>
+        <v>0.5963310304639186</v>
       </c>
       <c r="AC58">
-        <v>0.3213289040714358</v>
+        <v>0.601849942160813</v>
       </c>
       <c r="AD58">
-        <v>0.4035971760071533</v>
+        <v>0.5920268765193455</v>
       </c>
       <c r="AE58">
-        <v>0.4045934898284145</v>
+        <v>0.6027335775492778</v>
       </c>
       <c r="AF58">
-        <v>0.5</v>
+        <v>0.5557101319070783</v>
       </c>
       <c r="AG58">
-        <v>0.539915376415621</v>
+        <v>0.5794976487103007</v>
       </c>
       <c r="AH58">
-        <v>0.8906322536080751</v>
+        <v>0.5038611936641604</v>
       </c>
       <c r="AI58">
-        <v>1.733421009048215</v>
+        <v>0.4753054328915866</v>
       </c>
       <c r="AJ58">
-        <v>1.211006167420919</v>
+        <v>0.5853178551409491</v>
       </c>
       <c r="AK58">
-        <v>1.491698589553721</v>
+        <v>0.3375818094670819</v>
       </c>
       <c r="AL58">
         <v>0.3375818094670819</v>
@@ -8380,64 +7642,40 @@
       <c r="AZ58">
         <v>0.3375818094670819</v>
       </c>
-      <c r="BA58">
-        <v>0.3375818094670819</v>
-      </c>
     </row>
-    <row r="59" spans="1:53">
+    <row r="59" spans="1:52">
       <c r="A59" s="1">
         <v>44742</v>
       </c>
-      <c r="V59">
-        <v>0.5666363044676379</v>
-      </c>
-      <c r="W59">
-        <v>0.5769846636170284</v>
-      </c>
-      <c r="X59">
-        <v>0.5814005152009492</v>
-      </c>
-      <c r="Y59">
-        <v>0.7188653720122123</v>
-      </c>
-      <c r="Z59">
-        <v>0.7181242757845959</v>
-      </c>
-      <c r="AA59">
-        <v>0.7177675497972528</v>
-      </c>
-      <c r="AB59">
-        <v>0.7162721366053887</v>
-      </c>
       <c r="AC59">
-        <v>0.6529833468746079</v>
+        <v>0.6018453452673889</v>
       </c>
       <c r="AD59">
-        <v>0.6657393685641638</v>
+        <v>0.5920428118644459</v>
       </c>
       <c r="AE59">
-        <v>0.6578281917221013</v>
+        <v>0.6026828618714067</v>
       </c>
       <c r="AF59">
-        <v>0.6271934745412224</v>
+        <v>0.5558909580827418</v>
       </c>
       <c r="AG59">
-        <v>0.565387649938387</v>
+        <v>0.5801172000728702</v>
       </c>
       <c r="AH59">
-        <v>0.4771510906565766</v>
+        <v>0.5039831226574893</v>
       </c>
       <c r="AI59">
-        <v>0.7762107489414518</v>
+        <v>0.4736310470236672</v>
       </c>
       <c r="AJ59">
-        <v>0.6381609110613624</v>
+        <v>0.5061233662396043</v>
       </c>
       <c r="AK59">
-        <v>1.001444249407427</v>
+        <v>0.4864055123563019</v>
       </c>
       <c r="AL59">
-        <v>1.899999999999991</v>
+        <v>2.107773878883052</v>
       </c>
       <c r="AM59">
         <v>2.107773878883052</v>
@@ -8481,67 +7719,40 @@
       <c r="AZ59">
         <v>2.107773878883052</v>
       </c>
-      <c r="BA59">
-        <v>2.107773878883052</v>
-      </c>
     </row>
-    <row r="60" spans="1:53">
+    <row r="60" spans="1:52">
       <c r="A60" s="1">
         <v>44834</v>
       </c>
-      <c r="V60">
-        <v>0.5666363400237209</v>
-      </c>
-      <c r="W60">
-        <v>0.5769843475614326</v>
-      </c>
-      <c r="X60">
-        <v>0.5813992510747694</v>
-      </c>
-      <c r="Y60">
-        <v>0.7190284557915153</v>
-      </c>
-      <c r="Z60">
-        <v>0.7183781491532431</v>
-      </c>
-      <c r="AA60">
-        <v>0.7180395837608304</v>
-      </c>
-      <c r="AB60">
-        <v>0.7165194947440002</v>
-      </c>
-      <c r="AC60">
-        <v>0.7311570548637623</v>
-      </c>
       <c r="AD60">
-        <v>0.7270106815104631</v>
+        <v>0.5920478503801119</v>
       </c>
       <c r="AE60">
-        <v>0.7145400796873028</v>
+        <v>0.6026648947273786</v>
       </c>
       <c r="AF60">
-        <v>0.6383152965571581</v>
+        <v>0.5559246029662538</v>
       </c>
       <c r="AG60">
-        <v>0.5659040305895076</v>
+        <v>0.5800799410116796</v>
       </c>
       <c r="AH60">
-        <v>0.4713567898164399</v>
+        <v>0.5037109575478147</v>
       </c>
       <c r="AI60">
-        <v>0.5849967883139158</v>
+        <v>0.4734013110315903</v>
       </c>
       <c r="AJ60">
-        <v>0.5349096264491777</v>
+        <v>0.5070952901357101</v>
       </c>
       <c r="AK60">
-        <v>0.669105553256415</v>
+        <v>0.5166900990157863</v>
       </c>
       <c r="AL60">
-        <v>1.499999999999986</v>
+        <v>0.7690819047242268</v>
       </c>
       <c r="AM60">
-        <v>1.825927060424235</v>
+        <v>-1.59627740363824</v>
       </c>
       <c r="AN60">
         <v>-1.59627740363824</v>
@@ -8582,61 +7793,40 @@
       <c r="AZ60">
         <v>-1.59627740363824</v>
       </c>
-      <c r="BA60">
-        <v>-1.59627740363824</v>
-      </c>
     </row>
-    <row r="61" spans="1:53">
+    <row r="61" spans="1:52">
       <c r="A61" s="1">
         <v>44926</v>
       </c>
-      <c r="Y61">
-        <v>0.7190668565868102</v>
-      </c>
-      <c r="Z61">
-        <v>0.7184410001846019</v>
-      </c>
-      <c r="AA61">
-        <v>0.7181077894332965</v>
-      </c>
-      <c r="AB61">
-        <v>0.7165815833538276</v>
-      </c>
-      <c r="AC61">
-        <v>0.7249684190273153</v>
-      </c>
-      <c r="AD61">
-        <v>0.7219575661424426</v>
-      </c>
       <c r="AE61">
-        <v>0.7114424489829182</v>
+        <v>0.6026592334222129</v>
       </c>
       <c r="AF61">
-        <v>0.63760009126303</v>
+        <v>0.5559308631987654</v>
       </c>
       <c r="AG61">
-        <v>0.5661083054555434</v>
+        <v>0.580048149315572</v>
       </c>
       <c r="AH61">
-        <v>0.4101110354300204</v>
+        <v>0.5036749127502834</v>
       </c>
       <c r="AI61">
-        <v>0.3578838054035742</v>
+        <v>0.4733667013382882</v>
       </c>
       <c r="AJ61">
-        <v>0.3558201804967069</v>
+        <v>0.5090595197731352</v>
       </c>
       <c r="AK61">
-        <v>0.5924550313764883</v>
+        <v>0.5185545794743676</v>
       </c>
       <c r="AL61">
-        <v>1.261968047254513</v>
+        <v>0.5851662070534807</v>
       </c>
       <c r="AM61">
-        <v>1.247078917892267</v>
+        <v>0.205490803635319</v>
       </c>
       <c r="AN61">
-        <v>0.6360212899097775</v>
+        <v>-0.2429958482083094</v>
       </c>
       <c r="AO61">
         <v>-0.2429958482083094</v>
@@ -8674,64 +7864,40 @@
       <c r="AZ61">
         <v>-0.2429958482083094</v>
       </c>
-      <c r="BA61">
-        <v>-0.2429958482083094</v>
-      </c>
     </row>
-    <row r="62" spans="1:53">
+    <row r="62" spans="1:52">
       <c r="A62" s="1">
         <v>45016</v>
       </c>
-      <c r="Y62">
-        <v>0.7190617066032733</v>
-      </c>
-      <c r="Z62">
-        <v>0.7184342026006248</v>
-      </c>
-      <c r="AA62">
-        <v>0.718100773188742</v>
-      </c>
-      <c r="AB62">
-        <v>0.7165752263853495</v>
-      </c>
-      <c r="AC62">
-        <v>0.717707143425698</v>
-      </c>
-      <c r="AD62">
-        <v>0.7162471653020995</v>
-      </c>
-      <c r="AE62">
-        <v>0.7072100675742921</v>
-      </c>
       <c r="AF62">
-        <v>0.637389980797599</v>
+        <v>0.5559320280194644</v>
       </c>
       <c r="AG62">
-        <v>0.5663128372205222</v>
+        <v>0.5800449720922095</v>
       </c>
       <c r="AH62">
-        <v>0.410248217867462</v>
+        <v>0.503672582738915</v>
       </c>
       <c r="AI62">
-        <v>0.3582381007614259</v>
+        <v>0.4733615810893794</v>
       </c>
       <c r="AJ62">
-        <v>0.3561732032164429</v>
+        <v>0.509305605941579</v>
       </c>
       <c r="AK62">
-        <v>0.5931001582837325</v>
+        <v>0.5183698092240475</v>
       </c>
       <c r="AL62">
-        <v>0.8836336109360161</v>
+        <v>0.5766903917845364</v>
       </c>
       <c r="AM62">
-        <v>1.017541745538338</v>
+        <v>0.3734855833389825</v>
       </c>
       <c r="AN62">
-        <v>1.596777950971301</v>
+        <v>0.3040507663791092</v>
       </c>
       <c r="AO62">
-        <v>-0.7601644496390776</v>
+        <v>-0.5009691804783216</v>
       </c>
       <c r="AP62">
         <v>-0.5009691804783216</v>
@@ -8766,67 +7932,43 @@
       <c r="AZ62">
         <v>-0.5009691804783216</v>
       </c>
-      <c r="BA62">
-        <v>-0.5009691804783216</v>
-      </c>
     </row>
-    <row r="63" spans="1:53">
+    <row r="63" spans="1:52">
       <c r="A63" s="1">
         <v>45107</v>
       </c>
-      <c r="Y63">
-        <v>0.7190578510533461</v>
-      </c>
-      <c r="Z63">
-        <v>0.7184283443360857</v>
-      </c>
-      <c r="AA63">
-        <v>0.7180944981874205</v>
-      </c>
-      <c r="AB63">
-        <v>0.7165695225723289</v>
-      </c>
-      <c r="AC63">
-        <v>0.7164547588429951</v>
-      </c>
-      <c r="AD63">
-        <v>0.715285703937004</v>
-      </c>
-      <c r="AE63">
-        <v>0.706455328751925</v>
-      </c>
       <c r="AF63">
-        <v>0.6373810985845583</v>
+        <v>0.5559322447540778</v>
       </c>
       <c r="AG63">
-        <v>0.5455785622608329</v>
+        <v>0.5800458424340728</v>
       </c>
       <c r="AH63">
-        <v>0.5313729211371198</v>
+        <v>0.5036725885117196</v>
       </c>
       <c r="AI63">
-        <v>0.513532723422878</v>
+        <v>0.4733608209974977</v>
       </c>
       <c r="AJ63">
-        <v>0.4538200343042281</v>
+        <v>0.5092938302951779</v>
       </c>
       <c r="AK63">
-        <v>0.4227717190683649</v>
+        <v>0.5183191142416521</v>
       </c>
       <c r="AL63">
-        <v>0.4177330986773171</v>
+        <v>0.5775971344649914</v>
       </c>
       <c r="AM63">
-        <v>0.8674685025136029</v>
+        <v>0.420323673618467</v>
       </c>
       <c r="AN63">
-        <v>0.4220709734250363</v>
+        <v>0.3863685212375371</v>
       </c>
       <c r="AO63">
-        <v>-0.5619418543831358</v>
+        <v>0.2646043786367049</v>
       </c>
       <c r="AP63">
-        <v>-1.002803812062481</v>
+        <v>0.6399165487990643</v>
       </c>
       <c r="AQ63">
         <v>0.6399165487990643</v>
@@ -8858,70 +8000,43 @@
       <c r="AZ63">
         <v>0.6399165487990643</v>
       </c>
-      <c r="BA63">
-        <v>0.6399165487990643</v>
-      </c>
     </row>
-    <row r="64" spans="1:53">
+    <row r="64" spans="1:52">
       <c r="A64" s="1">
         <v>45199</v>
       </c>
-      <c r="Y64">
-        <v>0.7190575215133579</v>
-      </c>
-      <c r="Z64">
-        <v>0.7184277465647391</v>
-      </c>
-      <c r="AA64">
-        <v>0.7180938335688147</v>
-      </c>
-      <c r="AB64">
-        <v>0.7165689167634746</v>
-      </c>
-      <c r="AC64">
-        <v>0.7166984929060538</v>
-      </c>
-      <c r="AD64">
-        <v>0.7154830371627354</v>
-      </c>
-      <c r="AE64">
-        <v>0.7065503535634486</v>
-      </c>
-      <c r="AF64">
-        <v>0.637383109827265</v>
-      </c>
       <c r="AG64">
-        <v>0.5414597810972493</v>
+        <v>0.5800461070465832</v>
       </c>
       <c r="AH64">
-        <v>0.5562527733740431</v>
+        <v>0.5036726090028715</v>
       </c>
       <c r="AI64">
-        <v>0.5324448580453739</v>
+        <v>0.4733607082360415</v>
       </c>
       <c r="AJ64">
-        <v>0.4687486084061045</v>
+        <v>0.5092865296080729</v>
       </c>
       <c r="AK64">
-        <v>0.4227483540697676</v>
+        <v>0.5183150805172549</v>
       </c>
       <c r="AL64">
-        <v>0.4265924408188653</v>
+        <v>0.5777989484853545</v>
       </c>
       <c r="AM64">
-        <v>0.5611739041530228</v>
+        <v>0.4285279749237644</v>
       </c>
       <c r="AN64">
-        <v>0.300976128603665</v>
+        <v>0.4037384014506836</v>
       </c>
       <c r="AO64">
-        <v>0.3206171571458185</v>
+        <v>0.3460564730119325</v>
       </c>
       <c r="AP64">
-        <v>-0.2473557684777461</v>
+        <v>0.4034515258036194</v>
       </c>
       <c r="AQ64">
-        <v>-0.5707727015197008</v>
+        <v>-1.082392568246973</v>
       </c>
       <c r="AR64">
         <v>-1.082392568246973</v>
@@ -8950,61 +8065,43 @@
       <c r="AZ64">
         <v>-1.082392568246973</v>
       </c>
-      <c r="BA64">
-        <v>-1.082392568246973</v>
-      </c>
     </row>
-    <row r="65" spans="1:53">
+    <row r="65" spans="1:52">
       <c r="A65" s="1">
         <v>45291</v>
       </c>
-      <c r="AC65">
-        <v>0.7168489069836395</v>
-      </c>
-      <c r="AD65">
-        <v>0.7156002395552937</v>
-      </c>
-      <c r="AE65">
-        <v>0.7066187302212102</v>
-      </c>
-      <c r="AF65">
-        <v>0.6373834035466607</v>
-      </c>
-      <c r="AG65">
-        <v>0.540783364039983</v>
-      </c>
       <c r="AH65">
-        <v>0.559873705932431</v>
+        <v>0.5036726115899276</v>
       </c>
       <c r="AI65">
-        <v>0.5364757554579683</v>
+        <v>0.4733606915055664</v>
       </c>
       <c r="AJ65">
-        <v>0.4709317229228321</v>
+        <v>0.50928580372062</v>
       </c>
       <c r="AK65">
-        <v>0.379900233589936</v>
+        <v>0.5183152700179707</v>
       </c>
       <c r="AL65">
-        <v>0.3813613064184835</v>
+        <v>0.577814217068601</v>
       </c>
       <c r="AM65">
-        <v>0.5609204932029712</v>
+        <v>0.4302178666243766</v>
       </c>
       <c r="AN65">
-        <v>0.2133322007338307</v>
+        <v>0.4069231184352962</v>
       </c>
       <c r="AO65">
-        <v>0.5037909770959601</v>
+        <v>0.3836929486134322</v>
       </c>
       <c r="AP65">
-        <v>0.2557045158832096</v>
+        <v>0.4188904526677877</v>
       </c>
       <c r="AQ65">
-        <v>0.3443383209621658</v>
+        <v>0.3117726128447753</v>
       </c>
       <c r="AR65">
-        <v>-1.482980287195304</v>
+        <v>-1.253192088351895</v>
       </c>
       <c r="AS65">
         <v>-1.253192088351895</v>
@@ -9030,64 +8127,43 @@
       <c r="AZ65">
         <v>-1.253192088351895</v>
       </c>
-      <c r="BA65">
-        <v>-1.253192088351895</v>
-      </c>
     </row>
-    <row r="66" spans="1:53">
+    <row r="66" spans="1:52">
       <c r="A66" s="1">
         <v>45382</v>
       </c>
-      <c r="AC66">
-        <v>0.7168662737330975</v>
-      </c>
-      <c r="AD66">
-        <v>0.7156130526104798</v>
-      </c>
-      <c r="AE66">
-        <v>0.706628116905143</v>
-      </c>
-      <c r="AF66">
-        <v>0.6373834025428466</v>
-      </c>
-      <c r="AG66">
-        <v>0.5406771474830102</v>
-      </c>
-      <c r="AH66">
-        <v>0.560311483594657</v>
-      </c>
       <c r="AI66">
-        <v>0.5371770109519639</v>
+        <v>0.4733606890233145</v>
       </c>
       <c r="AJ66">
-        <v>0.4712503159604675</v>
+        <v>0.5092858732984246</v>
       </c>
       <c r="AK66">
-        <v>0.3812601305627368</v>
+        <v>0.5183153520983381</v>
       </c>
       <c r="AL66">
-        <v>0.3829505529506321</v>
+        <v>0.577813958216677</v>
       </c>
       <c r="AM66">
-        <v>0.5361813870538015</v>
+        <v>0.4305449897553755</v>
       </c>
       <c r="AN66">
-        <v>0.2141789606539248</v>
+        <v>0.4075400693334677</v>
       </c>
       <c r="AO66">
-        <v>0.5802378555585364</v>
+        <v>0.3911361294907718</v>
       </c>
       <c r="AP66">
-        <v>0.5953630819808922</v>
+        <v>0.4118109172893225</v>
       </c>
       <c r="AQ66">
-        <v>0.7349233804709883</v>
+        <v>0.3753720210288261</v>
       </c>
       <c r="AR66">
-        <v>-1.158099220658045</v>
+        <v>0.1382801377562032</v>
       </c>
       <c r="AS66">
-        <v>-0.8967749722241507</v>
+        <v>-1.225249013415265</v>
       </c>
       <c r="AT66">
         <v>-1.225249013415265</v>
@@ -9110,67 +8186,43 @@
       <c r="AZ66">
         <v>-1.225249013415265</v>
       </c>
-      <c r="BA66">
-        <v>-1.225249013415265</v>
-      </c>
     </row>
-    <row r="67" spans="1:53">
+    <row r="67" spans="1:52">
       <c r="A67" s="1">
         <v>45473</v>
       </c>
-      <c r="AC67">
-        <v>0.7168592032707914</v>
-      </c>
-      <c r="AD67">
-        <v>0.7156073846309035</v>
-      </c>
-      <c r="AE67">
-        <v>0.7066259530749028</v>
-      </c>
-      <c r="AF67">
-        <v>0.637383398557781</v>
-      </c>
-      <c r="AG67">
-        <v>0.5406606708266285</v>
-      </c>
-      <c r="AH67">
-        <v>0.5603568725715128</v>
-      </c>
-      <c r="AI67">
-        <v>0.5373072519643562</v>
-      </c>
       <c r="AJ67">
-        <v>0.4712968052810405</v>
+        <v>0.5092858995973987</v>
       </c>
       <c r="AK67">
-        <v>0.5251360674369788</v>
+        <v>0.5183153601845794</v>
       </c>
       <c r="AL67">
-        <v>0.549477353466623</v>
+        <v>0.5778137642153501</v>
       </c>
       <c r="AM67">
-        <v>0.6064845945658025</v>
+        <v>0.4306097901394243</v>
       </c>
       <c r="AN67">
-        <v>0.4828677335628926</v>
+        <v>0.4076569715094388</v>
       </c>
       <c r="AO67">
-        <v>1.033334771491255</v>
+        <v>0.3933945919547459</v>
       </c>
       <c r="AP67">
-        <v>0.7746376111746258</v>
+        <v>0.4115715134981616</v>
       </c>
       <c r="AQ67">
-        <v>0.8788449032025341</v>
+        <v>0.4464342903033282</v>
       </c>
       <c r="AR67">
-        <v>-0.752998921680927</v>
+        <v>0.3132824309441857</v>
       </c>
       <c r="AS67">
-        <v>-0.523195549241052</v>
+        <v>-0.0003639769165254825</v>
       </c>
       <c r="AT67">
-        <v>-0.8182812689731662</v>
+        <v>-0.1672491925858992</v>
       </c>
       <c r="AU67">
         <v>-0.1672491925858992</v>
@@ -9190,70 +8242,43 @@
       <c r="AZ67">
         <v>-0.1672491925858992</v>
       </c>
-      <c r="BA67">
-        <v>-0.1672491925858992</v>
-      </c>
     </row>
-    <row r="68" spans="1:53">
+    <row r="68" spans="1:52">
       <c r="A68" s="1">
         <v>45565</v>
       </c>
-      <c r="AC68">
-        <v>0.7168562474817939</v>
-      </c>
-      <c r="AD68">
-        <v>0.7156051124468924</v>
-      </c>
-      <c r="AE68">
-        <v>0.7066248827138775</v>
-      </c>
-      <c r="AF68">
-        <v>0.6373833982226454</v>
-      </c>
-      <c r="AG68">
-        <v>0.540658123707054</v>
-      </c>
-      <c r="AH68">
-        <v>0.560360811481009</v>
-      </c>
-      <c r="AI68">
-        <v>0.5373309137107601</v>
-      </c>
-      <c r="AJ68">
-        <v>0.4713035890035093</v>
-      </c>
       <c r="AK68">
-        <v>0.5462372164700643</v>
+        <v>0.5183153600818956</v>
       </c>
       <c r="AL68">
-        <v>0.5742081514664457</v>
+        <v>0.5778137430332451</v>
       </c>
       <c r="AM68">
-        <v>0.6161556561152235</v>
+        <v>0.4306225157719165</v>
       </c>
       <c r="AN68">
-        <v>0.5084091828181839</v>
+        <v>0.407679318444447</v>
       </c>
       <c r="AO68">
-        <v>0.9051321049412735</v>
+        <v>0.3939345927504542</v>
       </c>
       <c r="AP68">
-        <v>0.793778326795632</v>
+        <v>0.4112784779592493</v>
       </c>
       <c r="AQ68">
-        <v>1.130542372941818</v>
+        <v>0.4566825375651123</v>
       </c>
       <c r="AR68">
-        <v>-0.4704156966995328</v>
+        <v>0.3929871228776882</v>
       </c>
       <c r="AS68">
-        <v>-0.2678013321647512</v>
+        <v>0.1810037809720154</v>
       </c>
       <c r="AT68">
-        <v>-0.150009074060236</v>
+        <v>0.1461216279327993</v>
       </c>
       <c r="AU68">
-        <v>-0.5107106420686733</v>
+        <v>-1.315428906515805</v>
       </c>
       <c r="AV68">
         <v>-1.315428906515805</v>
@@ -9270,61 +8295,43 @@
       <c r="AZ68">
         <v>-1.315428906515805</v>
       </c>
-      <c r="BA68">
-        <v>-1.315428906515805</v>
-      </c>
     </row>
-    <row r="69" spans="1:53">
+    <row r="69" spans="1:52">
       <c r="A69" s="1">
         <v>45657</v>
       </c>
-      <c r="AG69">
-        <v>0.5406577303356649</v>
-      </c>
-      <c r="AH69">
-        <v>0.5603610623029985</v>
-      </c>
-      <c r="AI69">
-        <v>0.5373352440941201</v>
-      </c>
-      <c r="AJ69">
-        <v>0.4713045788841876</v>
-      </c>
-      <c r="AK69">
-        <v>0.5544656401998117</v>
-      </c>
       <c r="AL69">
-        <v>0.5851635910188951</v>
+        <v>0.5778137424797436</v>
       </c>
       <c r="AM69">
-        <v>0.6209203173300034</v>
+        <v>0.4306250229778977</v>
       </c>
       <c r="AN69">
-        <v>0.5191753993704133</v>
+        <v>0.407683575268852</v>
       </c>
       <c r="AO69">
-        <v>0.7816402422690345</v>
+        <v>0.3940811986019077</v>
       </c>
       <c r="AP69">
-        <v>0.9162431236541266</v>
+        <v>0.4112356406729293</v>
       </c>
       <c r="AQ69">
-        <v>0.8500686806944628</v>
+        <v>0.461024890586649</v>
       </c>
       <c r="AR69">
-        <v>-0.1624766345027382</v>
+        <v>0.4105567512486004</v>
       </c>
       <c r="AS69">
-        <v>-0.1703934273738952</v>
+        <v>0.3054263500896334</v>
       </c>
       <c r="AT69">
-        <v>0.05197380972099097</v>
+        <v>0.2794220632822827</v>
       </c>
       <c r="AU69">
-        <v>-0.09538861511217078</v>
+        <v>-0.03014264510209401</v>
       </c>
       <c r="AV69">
-        <v>-0.4166873101315929</v>
+        <v>-0.6454450625183199</v>
       </c>
       <c r="AW69">
         <v>-0.6454450625183199</v>
@@ -9338,64 +8345,43 @@
       <c r="AZ69">
         <v>-0.6454450625183199</v>
       </c>
-      <c r="BA69">
-        <v>-0.6454450625183199</v>
-      </c>
     </row>
-    <row r="70" spans="1:53">
+    <row r="70" spans="1:52">
       <c r="A70" s="1">
         <v>45747</v>
       </c>
-      <c r="AG70">
-        <v>0.5406576696013498</v>
-      </c>
-      <c r="AH70">
-        <v>0.5603610653760713</v>
-      </c>
-      <c r="AI70">
-        <v>0.5373360346707097</v>
-      </c>
-      <c r="AJ70">
-        <v>0.4713047233275595</v>
-      </c>
-      <c r="AK70">
-        <v>0.5564236214879722</v>
-      </c>
-      <c r="AL70">
-        <v>0.5878690801450143</v>
-      </c>
       <c r="AM70">
-        <v>0.6221044916514983</v>
+        <v>0.4306255163476413</v>
       </c>
       <c r="AN70">
-        <v>0.5209906473480685</v>
+        <v>0.407684387281658</v>
       </c>
       <c r="AO70">
-        <v>0.7822113523727126</v>
+        <v>0.3941183284725733</v>
       </c>
       <c r="AP70">
-        <v>0.7342478430740584</v>
+        <v>0.4112197061912668</v>
       </c>
       <c r="AQ70">
-        <v>0.5629136562862271</v>
+        <v>0.4619455652107042</v>
       </c>
       <c r="AR70">
-        <v>-0.06075391664805352</v>
+        <v>0.4161090825201293</v>
       </c>
       <c r="AS70">
-        <v>0.1219425411587309</v>
+        <v>0.3381183618960468</v>
       </c>
       <c r="AT70">
-        <v>0.2644904915490685</v>
+        <v>0.3248789334286321</v>
       </c>
       <c r="AU70">
-        <v>0.3472614192722574</v>
+        <v>0.05961429698849005</v>
       </c>
       <c r="AV70">
-        <v>0.1046135451433656</v>
+        <v>-0.05602747709475803</v>
       </c>
       <c r="AW70">
-        <v>-0.1879686594642891</v>
+        <v>-0.3642442736871487</v>
       </c>
       <c r="AX70">
         <v>-0.3642442736871487</v>
@@ -9406,67 +8392,43 @@
       <c r="AZ70">
         <v>-0.3642442736871487</v>
       </c>
-      <c r="BA70">
-        <v>-0.3642442736871487</v>
-      </c>
     </row>
-    <row r="71" spans="1:53">
+    <row r="71" spans="1:52">
       <c r="A71" s="1">
         <v>45838</v>
       </c>
-      <c r="AG71">
-        <v>0.5406576602250698</v>
-      </c>
-      <c r="AH71">
-        <v>0.5603610629220809</v>
-      </c>
-      <c r="AI71">
-        <v>0.5373361791200465</v>
-      </c>
-      <c r="AJ71">
-        <v>0.4713047444047338</v>
-      </c>
-      <c r="AK71">
-        <v>0.5570041305627913</v>
-      </c>
-      <c r="AL71">
-        <v>0.5887495320309113</v>
-      </c>
-      <c r="AM71">
-        <v>0.6225088106322079</v>
-      </c>
       <c r="AN71">
-        <v>0.5214972361556129</v>
+        <v>0.4076845420908638</v>
       </c>
       <c r="AO71">
-        <v>0.4401409674393709</v>
+        <v>0.3941280917049306</v>
       </c>
       <c r="AP71">
-        <v>0.423123739728878</v>
+        <v>0.4112162590719237</v>
       </c>
       <c r="AQ71">
-        <v>0.4282506763823117</v>
+        <v>0.462241177125794</v>
       </c>
       <c r="AR71">
-        <v>0.1323981416292124</v>
+        <v>0.4175526353887851</v>
       </c>
       <c r="AS71">
-        <v>0.1991269897618366</v>
+        <v>0.3528438416363108</v>
       </c>
       <c r="AT71">
-        <v>0.2537613818659423</v>
+        <v>0.3425555313865356</v>
       </c>
       <c r="AU71">
-        <v>0.4237387571593985</v>
+        <v>0.1862872310007233</v>
       </c>
       <c r="AV71">
-        <v>0.3050294404940246</v>
+        <v>0.07641392753204507</v>
       </c>
       <c r="AW71">
-        <v>0.1037056639830354</v>
+        <v>0.02927061881096276</v>
       </c>
       <c r="AX71">
-        <v>-0.06445993201673161</v>
+        <v>-0.2250721972476839</v>
       </c>
       <c r="AY71">
         <v>-0.2250721972476839</v>
@@ -9474,716 +8436,299 @@
       <c r="AZ71">
         <v>-0.2250721972476839</v>
       </c>
-      <c r="BA71">
-        <v>-0.2250721972476839</v>
-      </c>
     </row>
-    <row r="72" spans="1:53">
+    <row r="72" spans="1:52">
       <c r="A72" s="1">
         <v>45930</v>
       </c>
-      <c r="AG72">
-        <v>0.540657658777575</v>
-      </c>
-      <c r="AH72">
-        <v>0.5603610623801794</v>
-      </c>
-      <c r="AI72">
-        <v>0.5373362055057748</v>
-      </c>
-      <c r="AJ72">
-        <v>0.4713047474803148</v>
-      </c>
-      <c r="AK72">
-        <v>0.5571590335545917</v>
-      </c>
-      <c r="AL72">
-        <v>0.5889984059809437</v>
-      </c>
-      <c r="AM72">
-        <v>0.6226262345316161</v>
-      </c>
-      <c r="AN72">
-        <v>0.5216016924561634</v>
-      </c>
       <c r="AO72">
-        <v>0.4098040190116147</v>
+        <v>0.3941306070586419</v>
       </c>
       <c r="AP72">
-        <v>0.383426006203817</v>
+        <v>0.4112152634303688</v>
       </c>
       <c r="AQ72">
-        <v>0.4030946197612124</v>
+        <v>0.4623141747285552</v>
       </c>
       <c r="AR72">
-        <v>0.1646134155832848</v>
+        <v>0.4179681410980888</v>
       </c>
       <c r="AS72">
-        <v>0.2623745466969467</v>
+        <v>0.3576102742101361</v>
       </c>
       <c r="AT72">
-        <v>0.2685425938263108</v>
+        <v>0.3489044715129138</v>
       </c>
       <c r="AU72">
-        <v>0.52023475871259</v>
+        <v>0.2130262468648328</v>
       </c>
       <c r="AV72">
-        <v>0.4463055845439925</v>
+        <v>0.1472089717927605</v>
       </c>
       <c r="AW72">
-        <v>0.2307757618606985</v>
+        <v>0.1033250435889952</v>
       </c>
       <c r="AX72">
-        <v>0.09974804946696736</v>
+        <v>0.06521081482336055</v>
       </c>
       <c r="AY72">
-        <v>0.04307960860288063</v>
+        <v>-0.00499463464311134</v>
       </c>
       <c r="AZ72">
         <v>-0.00499463464311134</v>
       </c>
-      <c r="BA72">
-        <v>-0.00499463464311134</v>
-      </c>
     </row>
-    <row r="73" spans="1:53">
+    <row r="73" spans="1:52">
       <c r="A73" s="1">
         <v>46022</v>
       </c>
-      <c r="AK73">
-        <v>0.5572024417289252</v>
-      </c>
-      <c r="AL73">
-        <v>0.5890738213634863</v>
-      </c>
-      <c r="AM73">
-        <v>0.6226631518292187</v>
-      </c>
-      <c r="AN73">
-        <v>0.5216273375648952</v>
-      </c>
-      <c r="AO73">
-        <v>0.3874554247116007</v>
-      </c>
       <c r="AP73">
-        <v>0.361771369730591</v>
+        <v>0.4112150191610412</v>
       </c>
       <c r="AQ73">
-        <v>0.394118829171132</v>
+        <v>0.4623353599029593</v>
       </c>
       <c r="AR73">
-        <v>0.18524485659104</v>
+        <v>0.418081425399181</v>
       </c>
       <c r="AS73">
-        <v>0.3428813742886376</v>
+        <v>0.3594842715017199</v>
       </c>
       <c r="AT73">
-        <v>0.3174104629930952</v>
+        <v>0.3512958932845491</v>
       </c>
       <c r="AU73">
-        <v>0.5438394591833884</v>
+        <v>0.2281696492481033</v>
       </c>
       <c r="AV73">
-        <v>0.5061112152548333</v>
+        <v>0.1679758001053329</v>
       </c>
       <c r="AW73">
-        <v>0.2369121668483558</v>
+        <v>0.1500269904887351</v>
       </c>
       <c r="AX73">
-        <v>0.1397045265759402</v>
+        <v>0.1135054710366599</v>
       </c>
       <c r="AY73">
-        <v>0.1377206874530827</v>
+        <v>0.04183392552840626</v>
       </c>
       <c r="AZ73">
-        <v>0.1675816296148298</v>
-      </c>
-      <c r="BA73">
         <v>-0.1440085263791531</v>
       </c>
     </row>
-    <row r="74" spans="1:53">
+    <row r="74" spans="1:52">
       <c r="A74" s="1">
         <v>46112</v>
       </c>
-      <c r="AK74">
-        <v>0.5572143282206879</v>
-      </c>
-      <c r="AL74">
-        <v>0.5890958891398977</v>
-      </c>
-      <c r="AM74">
-        <v>0.6226743068244912</v>
-      </c>
-      <c r="AN74">
-        <v>0.5216330154484716</v>
-      </c>
-      <c r="AO74">
-        <v>0.3837281195185614</v>
-      </c>
-      <c r="AP74">
-        <v>0.3574508066235254</v>
-      </c>
       <c r="AQ74">
-        <v>0.3921245392893833</v>
+        <v>0.4623409160726425</v>
       </c>
       <c r="AR74">
-        <v>0.1905348862634995</v>
+        <v>0.4181132070282186</v>
       </c>
       <c r="AS74">
-        <v>0.3417625854768005</v>
+        <v>0.3601392904913424</v>
       </c>
       <c r="AT74">
-        <v>0.317419114862318</v>
+        <v>0.3521712152790163</v>
       </c>
       <c r="AU74">
-        <v>0.5430710560096372</v>
+        <v>0.2327778574843381</v>
       </c>
       <c r="AV74">
-        <v>0.5393070525298924</v>
+        <v>0.177054419243489</v>
       </c>
       <c r="AW74">
-        <v>0.2822095631932768</v>
+        <v>0.162729340072424</v>
       </c>
       <c r="AX74">
-        <v>0.1244908591137204</v>
+        <v>0.1472750386142753</v>
       </c>
       <c r="AY74">
-        <v>0.1214863317924539</v>
+        <v>0.06475939410165357</v>
       </c>
       <c r="AZ74">
-        <v>0.3385303686095114</v>
-      </c>
-      <c r="BA74">
-        <v>0.2249699068135271</v>
+        <v>0.006272286350254512</v>
       </c>
     </row>
-    <row r="75" spans="1:53">
+    <row r="75" spans="1:52">
       <c r="A75" s="1">
         <v>46203</v>
       </c>
-      <c r="AK75">
-        <v>0.5572176185157496</v>
-      </c>
-      <c r="AL75">
-        <v>0.5891024599960041</v>
-      </c>
-      <c r="AM75">
-        <v>0.6226777443600073</v>
-      </c>
-      <c r="AN75">
-        <v>0.5216343507171429</v>
-      </c>
-      <c r="AO75">
-        <v>0.3821130607885287</v>
-      </c>
-      <c r="AP75">
-        <v>0.3557973807028501</v>
-      </c>
-      <c r="AQ75">
-        <v>0.3915026902630535</v>
-      </c>
       <c r="AR75">
-        <v>0.1929626774048818</v>
+        <v>0.4181219891574564</v>
       </c>
       <c r="AS75">
-        <v>0.09523017641380505</v>
+        <v>0.3603848625617043</v>
       </c>
       <c r="AT75">
-        <v>0.09478569687886393</v>
+        <v>0.3524971634563469</v>
       </c>
       <c r="AU75">
-        <v>0.1287636306818425</v>
+        <v>0.2347979871517126</v>
       </c>
       <c r="AV75">
-        <v>0.1019123968419991</v>
+        <v>0.1800712173465834</v>
       </c>
       <c r="AW75">
-        <v>0.2817932142556572</v>
+        <v>0.1687393363856994</v>
       </c>
       <c r="AX75">
-        <v>0.1648504995217053</v>
+        <v>0.1559861887896607</v>
       </c>
       <c r="AY75">
-        <v>0.1622789752361058</v>
+        <v>0.07108351587972869</v>
       </c>
       <c r="AZ75">
-        <v>0.4663936762732419</v>
-      </c>
-      <c r="BA75">
-        <v>0.4000000000000057</v>
+        <v>-0.003363658404131673</v>
       </c>
     </row>
-    <row r="76" spans="1:53">
+    <row r="76" spans="1:52">
       <c r="A76" s="1">
         <v>46295</v>
       </c>
-      <c r="AK76">
-        <v>0.5572185246807418</v>
-      </c>
-      <c r="AL76">
-        <v>0.5891043995390788</v>
-      </c>
-      <c r="AM76">
-        <v>0.6226787933550471</v>
-      </c>
-      <c r="AN76">
-        <v>0.5216346537719909</v>
-      </c>
-      <c r="AO76">
-        <v>0.3817555030001082</v>
-      </c>
-      <c r="AP76">
-        <v>0.3553931855675422</v>
-      </c>
-      <c r="AQ76">
-        <v>0.391351251749228</v>
-      </c>
-      <c r="AR76">
-        <v>0.1937150072545304</v>
-      </c>
       <c r="AS76">
-        <v>0.09692216316865673</v>
+        <v>0.360473128511789</v>
       </c>
       <c r="AT76">
-        <v>0.09402571203260346</v>
+        <v>0.3526172890992574</v>
       </c>
       <c r="AU76">
-        <v>0.1289854143988236</v>
+        <v>0.2355045355261572</v>
       </c>
       <c r="AV76">
-        <v>0.1016639383736171</v>
+        <v>0.1812773255852789</v>
       </c>
       <c r="AW76">
-        <v>0.3121257356490901</v>
+        <v>0.170679170817546</v>
       </c>
       <c r="AX76">
-        <v>0.1657070316513085</v>
+        <v>0.1602864232460601</v>
       </c>
       <c r="AY76">
-        <v>0.1631387932247321</v>
+        <v>0.07363298052063469</v>
       </c>
       <c r="AZ76">
-        <v>0.536958667948781</v>
-      </c>
-      <c r="BA76">
-        <v>0.4511483319588336</v>
+        <v>0.009151516859280062</v>
       </c>
     </row>
-    <row r="77" spans="1:53">
+    <row r="77" spans="1:52">
       <c r="A77" s="1">
         <v>46387</v>
       </c>
-      <c r="AO77">
-        <v>0.3816309576697509</v>
-      </c>
-      <c r="AP77">
-        <v>0.3552599632780444</v>
-      </c>
-      <c r="AQ77">
-        <v>0.3913071840589675</v>
-      </c>
-      <c r="AR77">
-        <v>0.1940164283578897</v>
-      </c>
-      <c r="AS77">
-        <v>0.08313344033046377</v>
-      </c>
       <c r="AT77">
-        <v>0.08024385092079667</v>
+        <v>0.3526618365259364</v>
       </c>
       <c r="AU77">
-        <v>0.1044725722553859</v>
+        <v>0.2357876648513715</v>
       </c>
       <c r="AV77">
-        <v>0.07132023275963027</v>
+        <v>0.1817022254023545</v>
       </c>
       <c r="AW77">
-        <v>0.3332836563751727</v>
+        <v>0.1714890400586925</v>
       </c>
       <c r="AX77">
-        <v>0.1971093100426629</v>
+        <v>0.1616424553961849</v>
       </c>
       <c r="AY77">
-        <v>0.218424449518011</v>
+        <v>0.07442606439976267</v>
       </c>
       <c r="AZ77">
-        <v>0.6984697933821735</v>
-      </c>
-      <c r="BA77">
-        <v>0.5750237167950587</v>
+        <v>0.008512396115371655</v>
       </c>
     </row>
-    <row r="78" spans="1:53">
+    <row r="78" spans="1:52">
       <c r="A78" s="1">
         <v>46477</v>
       </c>
-      <c r="AO78">
-        <v>0.3815993551479101</v>
-      </c>
-      <c r="AP78">
-        <v>0.3552241648872401</v>
-      </c>
-      <c r="AQ78">
-        <v>0.3912959185443233</v>
-      </c>
-      <c r="AR78">
-        <v>0.1941181083610441</v>
-      </c>
-      <c r="AS78">
-        <v>0.08332612237782525</v>
-      </c>
-      <c r="AT78">
-        <v>0.08014973469007496</v>
-      </c>
       <c r="AU78">
-        <v>0.1045015060664315</v>
+        <v>0.2358920419511492</v>
       </c>
       <c r="AV78">
-        <v>0.07112600606709764</v>
+        <v>0.1818653141379293</v>
       </c>
       <c r="AW78">
-        <v>0.3337454255914167</v>
+        <v>0.1717723878714687</v>
       </c>
       <c r="AX78">
-        <v>0.259359523387289</v>
+        <v>0.1622197046038479</v>
       </c>
       <c r="AY78">
-        <v>0.2800655158905698</v>
+        <v>0.07471960015385383</v>
       </c>
       <c r="AZ78">
-        <v>0.729694202344902</v>
-      </c>
-      <c r="BA78">
-        <v>0.6226534528507699</v>
+        <v>0.0095568850703035</v>
       </c>
     </row>
-    <row r="79" spans="1:53">
+    <row r="79" spans="1:52">
       <c r="A79" s="1">
         <v>46568</v>
       </c>
-      <c r="AO79">
-        <v>0.3815893930866359</v>
-      </c>
-      <c r="AP79">
-        <v>0.3552131273523486</v>
-      </c>
-      <c r="AQ79">
-        <v>0.3912927560297575</v>
-      </c>
-      <c r="AR79">
-        <v>0.194156533868595</v>
-      </c>
-      <c r="AS79">
-        <v>0.08255421208711736</v>
-      </c>
-      <c r="AT79">
-        <v>0.07929642391887824</v>
-      </c>
-      <c r="AU79">
-        <v>0.1030511732486628</v>
-      </c>
       <c r="AV79">
-        <v>0.06901991718867434</v>
+        <v>0.1819243555284281</v>
       </c>
       <c r="AW79">
-        <v>0.1213878857341459</v>
+        <v>0.1718841422722699</v>
       </c>
       <c r="AX79">
-        <v>0.08612675401285461</v>
+        <v>0.1624197179362285</v>
       </c>
       <c r="AY79">
-        <v>0.08559836345893969</v>
+        <v>0.0748161367207107</v>
       </c>
       <c r="AZ79">
-        <v>0.1860443245947445</v>
-      </c>
-      <c r="BA79">
-        <v>0.605709523522961</v>
+        <v>0.009517437912410555</v>
       </c>
     </row>
-    <row r="80" spans="1:53">
+    <row r="80" spans="1:52">
       <c r="A80" s="1">
         <v>46660</v>
       </c>
-      <c r="AO80">
-        <v>0.3815866927659092</v>
-      </c>
-      <c r="AP80">
-        <v>0.3552100282957382</v>
-      </c>
-      <c r="AQ80">
-        <v>0.3912919265777365</v>
-      </c>
-      <c r="AR80">
-        <v>0.1941699960394563</v>
-      </c>
-      <c r="AS80">
-        <v>0.08257047299571642</v>
-      </c>
-      <c r="AT80">
-        <v>0.07928768393415792</v>
-      </c>
-      <c r="AU80">
-        <v>0.1030538206605628</v>
-      </c>
-      <c r="AV80">
-        <v>0.06899415904730528</v>
-      </c>
       <c r="AW80">
-        <v>0.1132217155851031</v>
+        <v>0.1719247489834604</v>
       </c>
       <c r="AX80">
-        <v>0.08422870947730488</v>
+        <v>0.1624993673331024</v>
       </c>
       <c r="AY80">
-        <v>0.0827643559280878</v>
+        <v>0.07485051611447076</v>
       </c>
       <c r="AZ80">
-        <v>0.1618475100643087</v>
-      </c>
-      <c r="BA80">
-        <v>0.6297219506583787</v>
+        <v>0.00960479939927617</v>
       </c>
     </row>
-    <row r="81" spans="1:53">
+    <row r="81" spans="1:52">
       <c r="A81" s="1">
         <v>46752</v>
       </c>
-      <c r="AS81">
-        <v>0.08252722151382555</v>
-      </c>
-      <c r="AT81">
-        <v>0.07923484082427794</v>
-      </c>
-      <c r="AU81">
-        <v>0.1029680093106547</v>
-      </c>
-      <c r="AV81">
-        <v>0.06884790850717135</v>
-      </c>
-      <c r="AW81">
-        <v>0.09738150340351992</v>
-      </c>
       <c r="AX81">
-        <v>0.07104645159853472</v>
+        <v>0.1625282087754759</v>
       </c>
       <c r="AY81">
-        <v>0.06765811452014722</v>
+        <v>0.07486211615249116</v>
       </c>
       <c r="AZ81">
-        <v>0.1150567307023475</v>
-      </c>
-      <c r="BA81">
-        <v>0.688907477092755</v>
+        <v>0.009602679019213361</v>
       </c>
     </row>
-    <row r="82" spans="1:53">
+    <row r="82" spans="1:52">
       <c r="A82" s="1">
         <v>46843</v>
       </c>
-      <c r="AS82">
-        <v>0.08252843801259697</v>
-      </c>
-      <c r="AT82">
-        <v>0.07923411937452331</v>
-      </c>
-      <c r="AU82">
-        <v>0.1029682212981856</v>
-      </c>
-      <c r="AV82">
-        <v>0.06884526859274784</v>
-      </c>
-      <c r="AW82">
-        <v>0.09617284620716506</v>
-      </c>
-      <c r="AX82">
-        <v>0.07039989653475497</v>
-      </c>
       <c r="AY82">
-        <v>0.0668502009818488</v>
+        <v>0.07486617546958078</v>
       </c>
       <c r="AZ82">
-        <v>0.11071931544727</v>
-      </c>
-      <c r="BA82">
-        <v>0.6890597288883242</v>
+        <v>0.009610002157319261</v>
       </c>
     </row>
-    <row r="83" spans="1:53">
+    <row r="83" spans="1:52">
       <c r="A83" s="1">
         <v>46934</v>
       </c>
-      <c r="AS83">
-        <v>0.08252601238326861</v>
-      </c>
-      <c r="AT83">
-        <v>0.07923084633538288</v>
-      </c>
-      <c r="AU83">
-        <v>0.1029631440914483</v>
-      </c>
-      <c r="AV83">
-        <v>0.06883510773125348</v>
-      </c>
-      <c r="AW83">
-        <v>0.0949681403021268</v>
-      </c>
-      <c r="AX83">
-        <v>0.0693776277956378</v>
-      </c>
-      <c r="AY83">
-        <v>0.0656538135032113</v>
-      </c>
       <c r="AZ83">
-        <v>0.106580912411639</v>
-      </c>
-      <c r="BA83">
-        <v>0.1926572091846671</v>
-      </c>
-    </row>
-    <row r="84" spans="1:53">
-      <c r="A84" s="1">
-        <v>47026</v>
-      </c>
-      <c r="AS84">
-        <v>0.08252609762601232</v>
-      </c>
-      <c r="AT84">
-        <v>0.07923079050252425</v>
-      </c>
-      <c r="AU84">
-        <v>0.1029631599088165</v>
-      </c>
-      <c r="AV84">
-        <v>0.06883486533222043</v>
-      </c>
-      <c r="AW84">
-        <v>0.09483326038585478</v>
-      </c>
-      <c r="AX84">
-        <v>0.06928969752491428</v>
-      </c>
-      <c r="AY84">
-        <v>0.06554483626001922</v>
-      </c>
-      <c r="AZ84">
-        <v>0.1060129947336498</v>
-      </c>
-      <c r="BA84">
-        <v>0.1634322146850423</v>
-      </c>
-    </row>
-    <row r="85" spans="1:53">
-      <c r="A85" s="1">
-        <v>47118</v>
-      </c>
-      <c r="AW85">
-        <v>0.094739979370842</v>
-      </c>
-      <c r="AX85">
-        <v>0.06920898002532046</v>
-      </c>
-      <c r="AY85">
-        <v>0.06544832911151326</v>
-      </c>
-      <c r="AZ85">
-        <v>0.1056378838995605</v>
-      </c>
-      <c r="BA85">
-        <v>0.1167069974641312</v>
-      </c>
-    </row>
-    <row r="86" spans="1:53">
-      <c r="A86" s="1">
-        <v>47208</v>
-      </c>
-      <c r="AW86">
-        <v>0.0947265167316808</v>
-      </c>
-      <c r="AX86">
-        <v>0.06919924622208821</v>
-      </c>
-      <c r="AY86">
-        <v>0.06543616042118486</v>
-      </c>
-      <c r="AZ86">
-        <v>0.1055717487867866</v>
-      </c>
-      <c r="BA86">
-        <v>0.1113052809396471</v>
-      </c>
-    </row>
-    <row r="87" spans="1:53">
-      <c r="A87" s="1">
-        <v>47299</v>
-      </c>
-      <c r="AW87">
-        <v>0.09471917736546515</v>
-      </c>
-      <c r="AX87">
-        <v>0.0691927663591371</v>
-      </c>
-      <c r="AY87">
-        <v>0.0654282438332261</v>
-      </c>
-      <c r="AZ87">
-        <v>0.1055370251769951</v>
-      </c>
-      <c r="BA87">
-        <v>0.1067510067757505</v>
-      </c>
-    </row>
-    <row r="88" spans="1:53">
-      <c r="A88" s="1">
-        <v>47391</v>
-      </c>
-      <c r="AW88">
-        <v>0.0947179097476003</v>
-      </c>
-      <c r="AX88">
-        <v>0.06919178251509035</v>
-      </c>
-      <c r="AY88">
-        <v>0.06542699661594611</v>
-      </c>
-      <c r="AZ88">
-        <v>0.1055297655091035</v>
-      </c>
-      <c r="BA88">
-        <v>0.1059930343883705</v>
-      </c>
-    </row>
-    <row r="89" spans="1:53">
-      <c r="A89" s="1">
-        <v>47483</v>
-      </c>
-      <c r="BA89">
-        <v>0.1055354985232522</v>
-      </c>
-    </row>
-    <row r="90" spans="1:53">
-      <c r="A90" s="1">
-        <v>47573</v>
-      </c>
-      <c r="BA90">
-        <v>0.1054398312915992</v>
-      </c>
-    </row>
-    <row r="91" spans="1:53">
-      <c r="A91" s="1">
-        <v>47664</v>
-      </c>
-      <c r="BA91">
-        <v>0.1053927161830733</v>
-      </c>
-    </row>
-    <row r="92" spans="1:53">
-      <c r="A92" s="1">
-        <v>47756</v>
-      </c>
-      <c r="BA92">
-        <v>0.1053812678519329</v>
+        <v>0.009609924253202527</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_CONSTR_AR2_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_CONSTR_AR2_50_9.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA94"/>
+  <dimension ref="A1:BA93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9074,7 +9074,7 @@
         <v>0.00105707652823428</v>
       </c>
       <c r="AG64">
-        <v>-0.3941836453765433</v>
+        <v>1.064148304642897</v>
       </c>
       <c r="AH64">
         <v>-1.967214790670653</v>
@@ -9166,10 +9166,10 @@
         <v>1.094252934127212</v>
       </c>
       <c r="AG65">
-        <v>2.19806877381355</v>
+        <v>1.65464643423161</v>
       </c>
       <c r="AH65">
-        <v>0.8801590087334432</v>
+        <v>2.815303213245683</v>
       </c>
       <c r="AI65">
         <v>1.836112747457122</v>
@@ -9255,13 +9255,13 @@
         <v>0.4444767583265247</v>
       </c>
       <c r="AG66">
-        <v>0.1679984577248602</v>
+        <v>-0.007480665961457522</v>
       </c>
       <c r="AH66">
-        <v>1.239183262778221</v>
+        <v>0.4101188288144624</v>
       </c>
       <c r="AI66">
-        <v>-3.629169871908772</v>
+        <v>0.6695474989784275</v>
       </c>
       <c r="AJ66">
         <v>1.142507241736567</v>
@@ -9341,16 +9341,16 @@
         <v>0.3866446549125384</v>
       </c>
       <c r="AG67">
-        <v>0.2609529067326807</v>
+        <v>0.4493200496657216</v>
       </c>
       <c r="AH67">
-        <v>0.1822267366046079</v>
+        <v>-0.07958912573294608</v>
       </c>
       <c r="AI67">
-        <v>1.849421814172693</v>
+        <v>0.07712680223366397</v>
       </c>
       <c r="AJ67">
-        <v>0.6879412097722906</v>
+        <v>-0.8302639870858292</v>
       </c>
       <c r="AK67">
         <v>0.2778921468196529</v>
@@ -9424,19 +9424,19 @@
         <v>0.5956472668896565</v>
       </c>
       <c r="AG68">
-        <v>0.7685090051532232</v>
+        <v>0.7330749705267524</v>
       </c>
       <c r="AH68">
-        <v>0.4573809467524453</v>
+        <v>0.7874825210913396</v>
       </c>
       <c r="AI68">
-        <v>1.346369358201942</v>
+        <v>0.6988283439376566</v>
       </c>
       <c r="AJ68">
-        <v>0.4727055409365047</v>
+        <v>1.018409371995308</v>
       </c>
       <c r="AK68">
-        <v>1.095591413702294</v>
+        <v>1.163233357403949</v>
       </c>
       <c r="AL68">
         <v>-2.336211685220064</v>
@@ -9504,22 +9504,22 @@
         <v>0.5300315601523962</v>
       </c>
       <c r="AG69">
-        <v>0.5468317569736435</v>
+        <v>0.5029228837222677</v>
       </c>
       <c r="AH69">
-        <v>0.6983869767741709</v>
+        <v>0.610837897184402</v>
       </c>
       <c r="AI69">
-        <v>-0.23216523258429</v>
+        <v>0.6563978856406073</v>
       </c>
       <c r="AJ69">
-        <v>0.7470530489953845</v>
+        <v>1.028925088656032</v>
       </c>
       <c r="AK69">
-        <v>0.6072235950435823</v>
+        <v>0.550721838197525</v>
       </c>
       <c r="AL69">
-        <v>0.3375818094670819</v>
+        <v>1.617227961673185</v>
       </c>
       <c r="AM69">
         <v>0.03642954902896633</v>
@@ -9581,25 +9581,25 @@
         <v>0.4959250037186139</v>
       </c>
       <c r="AG70">
-        <v>0.4968698750727842</v>
+        <v>0.5110536887772539</v>
       </c>
       <c r="AH70">
-        <v>0.5198005506992684</v>
+        <v>0.4272835764662723</v>
       </c>
       <c r="AI70">
-        <v>0.5910862568474369</v>
+        <v>0.4641130320630779</v>
       </c>
       <c r="AJ70">
-        <v>0.7130347817762454</v>
+        <v>0.2913914241014903</v>
       </c>
       <c r="AK70">
-        <v>0.4934841082100051</v>
+        <v>0.4715724452472505</v>
       </c>
       <c r="AL70">
-        <v>1.976627195201172</v>
+        <v>1.381840201698081</v>
       </c>
       <c r="AM70">
-        <v>2.107773878883052</v>
+        <v>2.579237892831723</v>
       </c>
       <c r="AN70">
         <v>4.623062809051376</v>
@@ -9655,28 +9655,28 @@
         <v>0.5281467481431354</v>
       </c>
       <c r="AG71">
-        <v>0.5755997459858946</v>
+        <v>0.5708378528491826</v>
       </c>
       <c r="AH71">
-        <v>0.5077729390771093</v>
+        <v>0.544881410402426</v>
       </c>
       <c r="AI71">
-        <v>0.7627185360959605</v>
+        <v>0.5530088627380649</v>
       </c>
       <c r="AJ71">
-        <v>0.6188693082003407</v>
+        <v>0.5951497563813704</v>
       </c>
       <c r="AK71">
-        <v>0.7514584068582184</v>
+        <v>0.7565241646707257</v>
       </c>
       <c r="AL71">
-        <v>0.1463892279297066</v>
+        <v>-0.08551743659749067</v>
       </c>
       <c r="AM71">
-        <v>0.2307459964317072</v>
+        <v>-0.01889072859910866</v>
       </c>
       <c r="AN71">
-        <v>-1.59627740363824</v>
+        <v>-0.4587040045966982</v>
       </c>
       <c r="AO71">
         <v>-3.361711150938063</v>
@@ -9726,31 +9726,31 @@
         <v>0.5252517652750027</v>
       </c>
       <c r="AG72">
-        <v>0.558453454549536</v>
+        <v>0.5463925148334372</v>
       </c>
       <c r="AH72">
-        <v>0.5701778009122539</v>
+        <v>0.5544389395051152</v>
       </c>
       <c r="AI72">
-        <v>0.4223029414935768</v>
+        <v>0.5830640054900118</v>
       </c>
       <c r="AJ72">
-        <v>0.6734071369215505</v>
+        <v>0.760816867937438</v>
       </c>
       <c r="AK72">
-        <v>0.6781936635843515</v>
+        <v>0.6582348924931578</v>
       </c>
       <c r="AL72">
-        <v>0.328141734103188</v>
+        <v>0.7016402456898746</v>
       </c>
       <c r="AM72">
-        <v>0.2458070026110408</v>
+        <v>0.114243261632557</v>
       </c>
       <c r="AN72">
-        <v>-0.1810864643540264</v>
+        <v>-0.5424328364062188</v>
       </c>
       <c r="AO72">
-        <v>-0.2429958482083094</v>
+        <v>1.156411635873152</v>
       </c>
       <c r="AP72">
         <v>-1.432989117992093</v>
@@ -9794,34 +9794,34 @@
         <v>45016</v>
       </c>
       <c r="AG73">
-        <v>0.5440196639255299</v>
+        <v>0.5391660624712877</v>
       </c>
       <c r="AH73">
-        <v>0.5509566664146465</v>
+        <v>0.5173003010336507</v>
       </c>
       <c r="AI73">
-        <v>0.5083918476606349</v>
+        <v>0.5415463155210753</v>
       </c>
       <c r="AJ73">
-        <v>0.6870549722549396</v>
+        <v>0.5711850976370861</v>
       </c>
       <c r="AK73">
-        <v>0.60442972491183</v>
+        <v>0.5875137701395904</v>
       </c>
       <c r="AL73">
-        <v>0.9814395293209806</v>
+        <v>0.9156873029043111</v>
       </c>
       <c r="AM73">
-        <v>0.9706271641162365</v>
+        <v>1.093708970289668</v>
       </c>
       <c r="AN73">
-        <v>1.759206277358068</v>
+        <v>1.635494756126981</v>
       </c>
       <c r="AO73">
-        <v>2.24998350988308</v>
+        <v>1.704316924395889</v>
       </c>
       <c r="AP73">
-        <v>-0.5009691804783216</v>
+        <v>2.658567824320484</v>
       </c>
       <c r="AQ73">
         <v>-2.851410521811431</v>
@@ -9861,38 +9861,35 @@
       <c r="A74" s="1">
         <v>45107</v>
       </c>
-      <c r="AG74">
-        <v>0.5542071436360727</v>
-      </c>
       <c r="AH74">
-        <v>0.5378297295067127</v>
+        <v>0.5281332395112083</v>
       </c>
       <c r="AI74">
-        <v>0.5835834209741023</v>
+        <v>0.5475721971495455</v>
       </c>
       <c r="AJ74">
-        <v>0.6594437867256491</v>
+        <v>0.5846585670763975</v>
       </c>
       <c r="AK74">
-        <v>0.6697101712918954</v>
+        <v>0.6597970038732344</v>
       </c>
       <c r="AL74">
-        <v>0.6078375652976367</v>
+        <v>0.5002717109346095</v>
       </c>
       <c r="AM74">
-        <v>0.6472643551256656</v>
+        <v>0.6071944601548015</v>
       </c>
       <c r="AN74">
-        <v>0.3840329060579353</v>
+        <v>0.6988216811783188</v>
       </c>
       <c r="AO74">
-        <v>0.07138415970635564</v>
+        <v>-0.1909835541363619</v>
       </c>
       <c r="AP74">
-        <v>1.371945250113332</v>
+        <v>0.3757659003210628</v>
       </c>
       <c r="AQ74">
-        <v>0.6399165487990643</v>
+        <v>1.999806211986415</v>
       </c>
       <c r="AR74">
         <v>3.933557394002079</v>
@@ -9929,38 +9926,35 @@
       <c r="A75" s="1">
         <v>45199</v>
       </c>
-      <c r="AH75">
-        <v>0.5489307764943846</v>
-      </c>
       <c r="AI75">
-        <v>0.5240868325221671</v>
+        <v>0.5591737977496212</v>
       </c>
       <c r="AJ75">
-        <v>0.6660511487683085</v>
+        <v>0.654237034821652</v>
       </c>
       <c r="AK75">
-        <v>0.6700209121427984</v>
+        <v>0.6554289440875106</v>
       </c>
       <c r="AL75">
-        <v>0.516615853564061</v>
+        <v>0.6110454483547445</v>
       </c>
       <c r="AM75">
-        <v>0.5064683428124233</v>
+        <v>0.4309725919933812</v>
       </c>
       <c r="AN75">
-        <v>0.1640331878499182</v>
+        <v>0.1994345662456277</v>
       </c>
       <c r="AO75">
-        <v>0.01694390559627312</v>
+        <v>0.3774247657288891</v>
       </c>
       <c r="AP75">
-        <v>0.4399097727585939</v>
+        <v>-0.2933563928175411</v>
       </c>
       <c r="AQ75">
-        <v>0.8971844921995269</v>
+        <v>0.8144766271589259</v>
       </c>
       <c r="AR75">
-        <v>-1.082392568246973</v>
+        <v>0.2327792178056682</v>
       </c>
       <c r="AS75">
         <v>0.2329359358994338</v>
@@ -9994,38 +9988,35 @@
       <c r="A76" s="1">
         <v>45291</v>
       </c>
-      <c r="AI76">
-        <v>0.5243788899687041</v>
-      </c>
       <c r="AJ76">
-        <v>0.6741412693490345</v>
+        <v>0.6198439568055503</v>
       </c>
       <c r="AK76">
-        <v>0.6425185587860732</v>
+        <v>0.6280762015333856</v>
       </c>
       <c r="AL76">
-        <v>0.7089823438728016</v>
+        <v>0.7245862795246452</v>
       </c>
       <c r="AM76">
-        <v>0.6941455025250305</v>
+        <v>0.7033709189469587</v>
       </c>
       <c r="AN76">
-        <v>0.8129924807575175</v>
+        <v>0.8168447309254308</v>
       </c>
       <c r="AO76">
-        <v>0.8565217274660821</v>
+        <v>0.8476683143693634</v>
       </c>
       <c r="AP76">
-        <v>0.2141460367577229</v>
+        <v>0.8385190132193212</v>
       </c>
       <c r="AQ76">
-        <v>0.1393442512512038</v>
+        <v>-0.08452011724551195</v>
       </c>
       <c r="AR76">
-        <v>0.04771547504918539</v>
+        <v>-0.394485932656816</v>
       </c>
       <c r="AS76">
-        <v>-1.253192088351895</v>
+        <v>-0.1147171757997718</v>
       </c>
       <c r="AT76">
         <v>0.4324506349439758</v>
@@ -10056,38 +10047,35 @@
       <c r="A77" s="1">
         <v>45382</v>
       </c>
-      <c r="AJ77">
-        <v>0.6679919410874595</v>
-      </c>
       <c r="AK77">
-        <v>0.6552804315078238</v>
+        <v>0.6423699778827014</v>
       </c>
       <c r="AL77">
-        <v>0.6572476647561343</v>
+        <v>0.6267198868770051</v>
       </c>
       <c r="AM77">
-        <v>0.6668006805023252</v>
+        <v>0.6532929365422522</v>
       </c>
       <c r="AN77">
-        <v>0.6344594679746759</v>
+        <v>0.7516675111314349</v>
       </c>
       <c r="AO77">
-        <v>0.5373986023179551</v>
+        <v>0.4459300699088113</v>
       </c>
       <c r="AP77">
-        <v>0.5683898117603867</v>
+        <v>0.6517691395826458</v>
       </c>
       <c r="AQ77">
-        <v>0.2562619014978023</v>
+        <v>0.5539521529030413</v>
       </c>
       <c r="AR77">
-        <v>0.7382510651407719</v>
+        <v>0.6119630908427581</v>
       </c>
       <c r="AS77">
-        <v>0.7874889811422088</v>
+        <v>0.4884973078714244</v>
       </c>
       <c r="AT77">
-        <v>-1.225249013415265</v>
+        <v>0.5515032008145326</v>
       </c>
       <c r="AU77">
         <v>-1.721673722292465</v>
@@ -10115,38 +10103,35 @@
       <c r="A78" s="1">
         <v>45473</v>
       </c>
-      <c r="AK78">
-        <v>0.6608233824340746</v>
-      </c>
       <c r="AL78">
-        <v>0.6035890503402712</v>
+        <v>0.6276160911158115</v>
       </c>
       <c r="AM78">
-        <v>0.6056468233292995</v>
+        <v>0.5665807906283493</v>
       </c>
       <c r="AN78">
-        <v>0.4447367809027961</v>
+        <v>0.5206861242509659</v>
       </c>
       <c r="AO78">
-        <v>0.3513951050836484</v>
+        <v>0.4353427689600385</v>
       </c>
       <c r="AP78">
-        <v>0.5107505056507248</v>
+        <v>0.2930099741135935</v>
       </c>
       <c r="AQ78">
-        <v>0.3823390932457871</v>
+        <v>0.5729772617718061</v>
       </c>
       <c r="AR78">
-        <v>0.2773470011655342</v>
+        <v>0.4846814035399901</v>
       </c>
       <c r="AS78">
-        <v>0.5730631639856925</v>
+        <v>0.3905111222360074</v>
       </c>
       <c r="AT78">
-        <v>0.6863426746352452</v>
+        <v>0.221642858267479</v>
       </c>
       <c r="AU78">
-        <v>-0.1672491925858992</v>
+        <v>0.9038950622192856</v>
       </c>
       <c r="AV78">
         <v>2.712662502476618</v>
@@ -10171,38 +10156,35 @@
       <c r="A79" s="1">
         <v>45565</v>
       </c>
-      <c r="AL79">
-        <v>0.64909361819836</v>
-      </c>
       <c r="AM79">
-        <v>0.6430895325717688</v>
+        <v>0.624955497962315</v>
       </c>
       <c r="AN79">
-        <v>0.5955002302513797</v>
+        <v>0.6512201745823353</v>
       </c>
       <c r="AO79">
-        <v>0.546377987068237</v>
+        <v>0.588351616094173</v>
       </c>
       <c r="AP79">
-        <v>0.4264300996074112</v>
+        <v>0.5043101634971142</v>
       </c>
       <c r="AQ79">
-        <v>0.3308368111631896</v>
+        <v>0.392987956191407</v>
       </c>
       <c r="AR79">
-        <v>0.2809151543791467</v>
+        <v>0.2907066385446314</v>
       </c>
       <c r="AS79">
-        <v>0.1183895460855266</v>
+        <v>0.2926131504153344</v>
       </c>
       <c r="AT79">
-        <v>0.4671849155127843</v>
+        <v>0.2938314210218012</v>
       </c>
       <c r="AU79">
-        <v>0.6569736633466323</v>
+        <v>0.456488388828089</v>
       </c>
       <c r="AV79">
-        <v>-1.315428906515805</v>
+        <v>0.03846020027388297</v>
       </c>
       <c r="AW79">
         <v>-2.00812900028761</v>
@@ -10224,38 +10206,35 @@
       <c r="A80" s="1">
         <v>45657</v>
       </c>
-      <c r="AM80">
-        <v>0.6505181386695584</v>
-      </c>
       <c r="AN80">
-        <v>0.6102854947359067</v>
+        <v>0.6902617660955838</v>
       </c>
       <c r="AO80">
-        <v>0.5373218154284864</v>
+        <v>0.5300099959623601</v>
       </c>
       <c r="AP80">
-        <v>0.4730181598711159</v>
+        <v>0.5586319582541105</v>
       </c>
       <c r="AQ80">
-        <v>0.3169904197988936</v>
+        <v>0.4512444954314707</v>
       </c>
       <c r="AR80">
-        <v>0.3767599263840103</v>
+        <v>0.3714707020279144</v>
       </c>
       <c r="AS80">
-        <v>0.3043083494374699</v>
+        <v>0.3406587378393717</v>
       </c>
       <c r="AT80">
-        <v>0.1434755161847363</v>
+        <v>0.3445144752280332</v>
       </c>
       <c r="AU80">
-        <v>0.1783518637265254</v>
+        <v>0.04855359642193482</v>
       </c>
       <c r="AV80">
-        <v>0.1505565631894131</v>
+        <v>-0.2012598648540541</v>
       </c>
       <c r="AW80">
-        <v>-0.6454450625183199</v>
+        <v>0.6054080602529603</v>
       </c>
       <c r="AX80">
         <v>-0.346469331090276</v>
@@ -10274,38 +10253,35 @@
       <c r="A81" s="1">
         <v>45747</v>
       </c>
-      <c r="AN81">
-        <v>0.5429906819493712</v>
-      </c>
       <c r="AO81">
-        <v>0.4678134338815478</v>
+        <v>0.4971144076380803</v>
       </c>
       <c r="AP81">
-        <v>0.48155920156685</v>
+        <v>0.4568361952056323</v>
       </c>
       <c r="AQ81">
-        <v>0.330405121667448</v>
+        <v>0.4795678504900446</v>
       </c>
       <c r="AR81">
-        <v>0.3450470656633786</v>
+        <v>0.3938031773181176</v>
       </c>
       <c r="AS81">
-        <v>0.3656212651393989</v>
+        <v>0.3474692917565351</v>
       </c>
       <c r="AT81">
-        <v>0.2818767534385324</v>
+        <v>0.3136229483785842</v>
       </c>
       <c r="AU81">
-        <v>0.1350951696108981</v>
+        <v>0.2338309616375578</v>
       </c>
       <c r="AV81">
-        <v>0.5508909905556447</v>
+        <v>0.4140197419517433</v>
       </c>
       <c r="AW81">
-        <v>0.7185823962982931</v>
+        <v>0.4455648528507095</v>
       </c>
       <c r="AX81">
-        <v>-0.3642442736871487</v>
+        <v>0.678525445981071</v>
       </c>
       <c r="AY81">
         <v>1.043712238889796</v>
@@ -10321,38 +10297,35 @@
       <c r="A82" s="1">
         <v>45838</v>
       </c>
-      <c r="AO82">
-        <v>0.4993234058066518</v>
-      </c>
       <c r="AP82">
-        <v>0.4648147179646419</v>
+        <v>0.4758650180389987</v>
       </c>
       <c r="AQ82">
-        <v>0.3302002984404378</v>
+        <v>0.4537767612101885</v>
       </c>
       <c r="AR82">
-        <v>0.3351211006026806</v>
+        <v>0.3695252185550706</v>
       </c>
       <c r="AS82">
-        <v>0.300793219845746</v>
+        <v>0.335544270597405</v>
       </c>
       <c r="AT82">
-        <v>0.3072831438202427</v>
+        <v>0.3117323507447275</v>
       </c>
       <c r="AU82">
-        <v>0.2340622705880838</v>
+        <v>0.2695332690536329</v>
       </c>
       <c r="AV82">
-        <v>0.1436773583013348</v>
+        <v>0.3013006752613657</v>
       </c>
       <c r="AW82">
-        <v>0.1684539539179462</v>
+        <v>0.03553631886126364</v>
       </c>
       <c r="AX82">
-        <v>0.3480574865621301</v>
+        <v>0.1221295520771107</v>
       </c>
       <c r="AY82">
-        <v>-0.2250721972476839</v>
+        <v>0.09306908518476864</v>
       </c>
       <c r="AZ82">
         <v>0.5275848603473889</v>
@@ -10365,38 +10338,35 @@
       <c r="A83" s="1">
         <v>45930</v>
       </c>
-      <c r="AP83">
-        <v>0.4681679252404896</v>
-      </c>
       <c r="AQ83">
-        <v>0.3275538510340929</v>
+        <v>0.4551772222362027</v>
       </c>
       <c r="AR83">
-        <v>0.3450015935953633</v>
+        <v>0.3709638434711375</v>
       </c>
       <c r="AS83">
-        <v>0.3040341640425271</v>
+        <v>0.3374943286342978</v>
       </c>
       <c r="AT83">
-        <v>0.2718618832122298</v>
+        <v>0.3190553404730083</v>
       </c>
       <c r="AU83">
-        <v>0.2193532401214589</v>
+        <v>0.2246617674002979</v>
       </c>
       <c r="AV83">
-        <v>0.1771235948350179</v>
+        <v>0.203994564329755</v>
       </c>
       <c r="AW83">
-        <v>0.06041170839383903</v>
+        <v>0.1633801582157783</v>
       </c>
       <c r="AX83">
-        <v>0.1895306511869988</v>
+        <v>0.07803534710207337</v>
       </c>
       <c r="AY83">
-        <v>0.1774721582651808</v>
+        <v>0.04293851998065981</v>
       </c>
       <c r="AZ83">
-        <v>-0.00499463464311134</v>
+        <v>0.04713129950129682</v>
       </c>
       <c r="BA83">
         <v>-2.073458279789094</v>
@@ -10406,253 +10376,215 @@
       <c r="A84" s="1">
         <v>46022</v>
       </c>
-      <c r="AQ84">
-        <v>0.3281835285405945</v>
-      </c>
       <c r="AR84">
-        <v>0.3438986969040266</v>
+        <v>0.3760797629022249</v>
       </c>
       <c r="AS84">
-        <v>0.3195118899915987</v>
+        <v>0.3394260263708191</v>
       </c>
       <c r="AT84">
-        <v>0.2769988430313264</v>
+        <v>0.3172880882590564</v>
       </c>
       <c r="AU84">
-        <v>0.2043277160414644</v>
+        <v>0.2283886454840366</v>
       </c>
       <c r="AV84">
-        <v>0.2497303509578564</v>
+        <v>0.2529182784354928</v>
       </c>
       <c r="AW84">
-        <v>0.1802223990394378</v>
+        <v>0.2025511868646054</v>
       </c>
       <c r="AX84">
-        <v>0.116363654457554</v>
+        <v>0.1818619313706766</v>
       </c>
       <c r="AY84">
-        <v>0.3041466845151066</v>
+        <v>0.2183045770073796</v>
       </c>
       <c r="AZ84">
-        <v>0.1905258477712651</v>
+        <v>0.2208999152239784</v>
       </c>
       <c r="BA84">
-        <v>-0.1440085263791531</v>
+        <v>0.6361754075068892</v>
       </c>
     </row>
     <row r="85" spans="1:53">
       <c r="A85" s="1">
         <v>46112</v>
       </c>
-      <c r="AR85">
-        <v>0.3421756259386405</v>
-      </c>
       <c r="AS85">
-        <v>0.3142106354758181</v>
+        <v>0.3384745434211183</v>
       </c>
       <c r="AT85">
-        <v>0.2826846486444383</v>
+        <v>0.3162119463766833</v>
       </c>
       <c r="AU85">
-        <v>0.2105182075709662</v>
+        <v>0.2362974411302725</v>
       </c>
       <c r="AV85">
-        <v>0.2226650785187192</v>
+        <v>0.2601088906913595</v>
       </c>
       <c r="AW85">
-        <v>0.1711638410034269</v>
+        <v>0.1709912603134681</v>
       </c>
       <c r="AX85">
-        <v>0.1571974495554938</v>
+        <v>0.1653185469908788</v>
       </c>
       <c r="AY85">
-        <v>0.2007308061935607</v>
+        <v>0.1861712041981687</v>
       </c>
       <c r="AZ85">
-        <v>0.2364235664729734</v>
+        <v>0.2641869441110163</v>
       </c>
       <c r="BA85">
-        <v>0.5013819105650653</v>
+        <v>0.4436885164606705</v>
       </c>
     </row>
     <row r="86" spans="1:53">
       <c r="A86" s="1">
         <v>46203</v>
       </c>
-      <c r="AS86">
-        <v>0.3118259593550672</v>
-      </c>
       <c r="AT86">
-        <v>0.2799927983742383</v>
+        <v>0.316919171847526</v>
       </c>
       <c r="AU86">
-        <v>0.2118895653671757</v>
+        <v>0.2336755985300533</v>
       </c>
       <c r="AV86">
-        <v>0.2156284387029336</v>
+        <v>0.248113043295838</v>
       </c>
       <c r="AW86">
-        <v>0.1526011717862214</v>
+        <v>0.1719851556012624</v>
       </c>
       <c r="AX86">
-        <v>0.159155547464795</v>
+        <v>0.1516616552684202</v>
       </c>
       <c r="AY86">
-        <v>0.2037980196905885</v>
+        <v>0.1634408952895245</v>
       </c>
       <c r="AZ86">
-        <v>0.1946698091965647</v>
+        <v>0.2226254385004955</v>
       </c>
       <c r="BA86">
-        <v>0.07620084665712523</v>
+        <v>0.0228205440441531</v>
       </c>
     </row>
     <row r="87" spans="1:53">
       <c r="A87" s="1">
         <v>46295</v>
       </c>
-      <c r="AT87">
-        <v>0.2796223017839808</v>
-      </c>
       <c r="AU87">
-        <v>0.2104228584162527</v>
+        <v>0.232751452518071</v>
       </c>
       <c r="AV87">
-        <v>0.2230472405860777</v>
+        <v>0.2497910746463467</v>
       </c>
       <c r="AW87">
-        <v>0.1584523174710807</v>
+        <v>0.1771656833252462</v>
       </c>
       <c r="AX87">
-        <v>0.1524606091585821</v>
+        <v>0.1575983818750111</v>
       </c>
       <c r="AY87">
-        <v>0.2215154270717748</v>
+        <v>0.1742586593082817</v>
       </c>
       <c r="AZ87">
-        <v>0.1959846855376756</v>
+        <v>0.2250485314562521</v>
       </c>
       <c r="BA87">
-        <v>0.07888044278989834</v>
+        <v>0.1454695354913681</v>
       </c>
     </row>
     <row r="88" spans="1:53">
       <c r="A88" s="1">
         <v>46387</v>
       </c>
-      <c r="AU88">
-        <v>0.210505018274639</v>
-      </c>
       <c r="AV88">
-        <v>0.2223862008384985</v>
+        <v>0.2518251963723678</v>
       </c>
       <c r="AW88">
-        <v>0.1603005376728217</v>
+        <v>0.1757267001009318</v>
       </c>
       <c r="AX88">
-        <v>0.1536763984215116</v>
+        <v>0.1585267166381222</v>
       </c>
       <c r="AY88">
-        <v>0.2165638286552825</v>
+        <v>0.1756583466455853</v>
       </c>
       <c r="AZ88">
-        <v>0.2025487302824363</v>
+        <v>0.2318706213682649</v>
       </c>
       <c r="BA88">
-        <v>0.1398228546619164</v>
+        <v>0.1910424935999793</v>
       </c>
     </row>
     <row r="89" spans="1:53">
       <c r="A89" s="1">
         <v>46477</v>
       </c>
-      <c r="AV89">
-        <v>0.2210778963124011</v>
-      </c>
       <c r="AW89">
-        <v>0.1588646925603963</v>
+        <v>0.1751886421764033</v>
       </c>
       <c r="AX89">
-        <v>0.1544261705489796</v>
+        <v>0.1573132100897035</v>
       </c>
       <c r="AY89">
-        <v>0.2146285213309605</v>
+        <v>0.1734700161652025</v>
       </c>
       <c r="AZ89">
-        <v>0.2009441212685547</v>
+        <v>0.2297732550850259</v>
       </c>
       <c r="BA89">
-        <v>0.125660016200871</v>
+        <v>0.1604052205521926</v>
       </c>
     </row>
     <row r="90" spans="1:53">
       <c r="A90" s="1">
         <v>46568</v>
       </c>
-      <c r="AW90">
-        <v>0.1588778422802715</v>
-      </c>
       <c r="AX90">
-        <v>0.1540703021059819</v>
+        <v>0.1574370579151948</v>
       </c>
       <c r="AY90">
-        <v>0.215994343178177</v>
+        <v>0.1737376830548807</v>
       </c>
       <c r="AZ90">
-        <v>0.2002080325592566</v>
+        <v>0.229068295432461</v>
       </c>
       <c r="BA90">
-        <v>0.1200394112401401</v>
+        <v>0.159175101018302</v>
       </c>
     </row>
     <row r="91" spans="1:53">
       <c r="A91" s="1">
         <v>46660</v>
       </c>
-      <c r="AX91">
-        <v>0.1540360718290525</v>
-      </c>
       <c r="AY91">
-        <v>0.2160007067113884</v>
+        <v>0.1740523173161441</v>
       </c>
       <c r="AZ91">
-        <v>0.2006267615664449</v>
+        <v>0.2296144803877474</v>
       </c>
       <c r="BA91">
-        <v>0.123360023981435</v>
+        <v>0.1646608803161475</v>
       </c>
     </row>
     <row r="92" spans="1:53">
       <c r="A92" s="1">
         <v>46752</v>
       </c>
-      <c r="AY92">
-        <v>0.2157550617381989</v>
-      </c>
       <c r="AZ92">
-        <v>0.2006587717324771</v>
+        <v>0.2296069135965982</v>
       </c>
       <c r="BA92">
-        <v>0.1234230825065799</v>
+        <v>0.1636996783146774</v>
       </c>
     </row>
     <row r="93" spans="1:53">
       <c r="A93" s="1">
         <v>46843</v>
       </c>
-      <c r="AZ93">
-        <v>0.200583379142159</v>
-      </c>
       <c r="BA93">
-        <v>0.1229281461270465</v>
-      </c>
-    </row>
-    <row r="94" spans="1:53">
-      <c r="A94" s="1">
-        <v>46934</v>
-      </c>
-      <c r="BA94">
-        <v>0.1230308894985729</v>
+        <v>0.1629695968671948</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_CONSTR_AR2_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_QoQ_Component_Forecasts/dt_full_qoq_CONSTR_AR2_50_9.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA82"/>
+  <dimension ref="A1:BB83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:54">
       <c r="B1" s="1">
         <v>39400</v>
       </c>
@@ -532,8 +532,11 @@
       <c r="BA1" s="1">
         <v>45891</v>
       </c>
+      <c r="BB1" s="1">
+        <v>45986</v>
+      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:54">
       <c r="A2" s="1">
         <v>39538</v>
       </c>
@@ -690,8 +693,11 @@
       <c r="BA2">
         <v>0.7596024993684409</v>
       </c>
+      <c r="BB2">
+        <v>0.7596024993684409</v>
+      </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:54">
       <c r="A3" s="1">
         <v>39629</v>
       </c>
@@ -848,8 +854,11 @@
       <c r="BA3">
         <v>5.398981879140436</v>
       </c>
+      <c r="BB3">
+        <v>5.398981879140436</v>
+      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:54">
       <c r="A4" s="1">
         <v>39721</v>
       </c>
@@ -1003,8 +1012,11 @@
       <c r="BA4">
         <v>-5.469777829091811</v>
       </c>
+      <c r="BB4">
+        <v>-5.469777829091811</v>
+      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:54">
       <c r="A5" s="1">
         <v>39813</v>
       </c>
@@ -1158,8 +1170,11 @@
       <c r="BA5">
         <v>-0.5016308114541062</v>
       </c>
+      <c r="BB5">
+        <v>-0.5016308114541062</v>
+      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:54">
       <c r="A6" s="1">
         <v>39903</v>
       </c>
@@ -1310,8 +1325,11 @@
       <c r="BA6">
         <v>-0.6214054032250829</v>
       </c>
+      <c r="BB6">
+        <v>-0.6214054032250829</v>
+      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:54">
       <c r="A7" s="1">
         <v>39994</v>
       </c>
@@ -1462,8 +1480,11 @@
       <c r="BA7">
         <v>-1.41027180704431</v>
       </c>
+      <c r="BB7">
+        <v>-1.41027180704431</v>
+      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:54">
       <c r="A8" s="1">
         <v>40086</v>
       </c>
@@ -1611,8 +1632,11 @@
       <c r="BA8">
         <v>-0.7919227738455277</v>
       </c>
+      <c r="BB8">
+        <v>-0.7919227738455277</v>
+      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:54">
       <c r="A9" s="1">
         <v>40178</v>
       </c>
@@ -1760,8 +1784,11 @@
       <c r="BA9">
         <v>0.8281781605252121</v>
       </c>
+      <c r="BB9">
+        <v>0.8281781605252121</v>
+      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:54">
       <c r="A10" s="1">
         <v>40268</v>
       </c>
@@ -1906,8 +1933,11 @@
       <c r="BA10">
         <v>0.6333580932638085</v>
       </c>
+      <c r="BB10">
+        <v>0.6333580932638085</v>
+      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:54">
       <c r="A11" s="1">
         <v>40359</v>
       </c>
@@ -2052,8 +2082,11 @@
       <c r="BA11">
         <v>-1.871721946158218</v>
       </c>
+      <c r="BB11">
+        <v>-1.871721946158218</v>
+      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:54">
       <c r="A12" s="1">
         <v>40451</v>
       </c>
@@ -2198,8 +2231,11 @@
       <c r="BA12">
         <v>6.947074551031477</v>
       </c>
+      <c r="BB12">
+        <v>6.947074551031477</v>
+      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:54">
       <c r="A13" s="1">
         <v>40543</v>
       </c>
@@ -2344,8 +2380,11 @@
       <c r="BA13">
         <v>-0.5538313209713124</v>
       </c>
+      <c r="BB13">
+        <v>-0.5538313209713124</v>
+      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:54">
       <c r="A14" s="1">
         <v>40633</v>
       </c>
@@ -2490,8 +2529,11 @@
       <c r="BA14">
         <v>-2.926189405619382</v>
       </c>
+      <c r="BB14">
+        <v>-2.926189405619382</v>
+      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:54">
       <c r="A15" s="1">
         <v>40724</v>
       </c>
@@ -2636,8 +2678,11 @@
       <c r="BA15">
         <v>9.498197854786355</v>
       </c>
+      <c r="BB15">
+        <v>9.498197854786355</v>
+      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:54">
       <c r="A16" s="1">
         <v>40816</v>
       </c>
@@ -2782,8 +2827,11 @@
       <c r="BA16">
         <v>-0.4994768307962829</v>
       </c>
+      <c r="BB16">
+        <v>-0.4994768307962829</v>
+      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:54">
       <c r="A17" s="1">
         <v>40908</v>
       </c>
@@ -2928,8 +2976,11 @@
       <c r="BA17">
         <v>-0.6902935135373696</v>
       </c>
+      <c r="BB17">
+        <v>-0.6902935135373696</v>
+      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:54">
       <c r="A18" s="1">
         <v>40999</v>
       </c>
@@ -3074,8 +3125,11 @@
       <c r="BA18">
         <v>1.660952585620919</v>
       </c>
+      <c r="BB18">
+        <v>1.660952585620919</v>
+      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:54">
       <c r="A19" s="1">
         <v>41090</v>
       </c>
@@ -3220,8 +3274,11 @@
       <c r="BA19">
         <v>0.5318249089792459</v>
       </c>
+      <c r="BB19">
+        <v>0.5318249089792459</v>
+      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:54">
       <c r="A20" s="1">
         <v>41182</v>
       </c>
@@ -3366,8 +3423,11 @@
       <c r="BA20">
         <v>0.6320478207229741</v>
       </c>
+      <c r="BB20">
+        <v>0.6320478207229741</v>
+      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:54">
       <c r="A21" s="1">
         <v>41274</v>
       </c>
@@ -3512,8 +3572,11 @@
       <c r="BA21">
         <v>-0.1274490368921875</v>
       </c>
+      <c r="BB21">
+        <v>-0.1274490368921875</v>
+      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:54">
       <c r="A22" s="1">
         <v>41364</v>
       </c>
@@ -3655,8 +3718,11 @@
       <c r="BA22">
         <v>-0.6653180828667331</v>
       </c>
+      <c r="BB22">
+        <v>-0.6653180828667331</v>
+      </c>
     </row>
-    <row r="23" spans="1:53">
+    <row r="23" spans="1:54">
       <c r="A23" s="1">
         <v>41455</v>
       </c>
@@ -3798,8 +3864,11 @@
       <c r="BA23">
         <v>-2.768682804727675</v>
       </c>
+      <c r="BB23">
+        <v>-2.768682804727675</v>
+      </c>
     </row>
-    <row r="24" spans="1:53">
+    <row r="24" spans="1:54">
       <c r="A24" s="1">
         <v>41547</v>
       </c>
@@ -3938,8 +4007,11 @@
       <c r="BA24">
         <v>2.972562358782</v>
       </c>
+      <c r="BB24">
+        <v>2.972562358782</v>
+      </c>
     </row>
-    <row r="25" spans="1:53">
+    <row r="25" spans="1:54">
       <c r="A25" s="1">
         <v>41639</v>
       </c>
@@ -4078,8 +4150,11 @@
       <c r="BA25">
         <v>1.814509864363558</v>
       </c>
+      <c r="BB25">
+        <v>1.814509864363558</v>
+      </c>
     </row>
-    <row r="26" spans="1:53">
+    <row r="26" spans="1:54">
       <c r="A26" s="1">
         <v>41729</v>
       </c>
@@ -4215,8 +4290,11 @@
       <c r="BA26">
         <v>0.7290697448430592</v>
       </c>
+      <c r="BB26">
+        <v>0.7290697448430592</v>
+      </c>
     </row>
-    <row r="27" spans="1:53">
+    <row r="27" spans="1:54">
       <c r="A27" s="1">
         <v>41820</v>
       </c>
@@ -4352,8 +4430,11 @@
       <c r="BA27">
         <v>4.434377037602189</v>
       </c>
+      <c r="BB27">
+        <v>4.434377037602189</v>
+      </c>
     </row>
-    <row r="28" spans="1:53">
+    <row r="28" spans="1:54">
       <c r="A28" s="1">
         <v>41912</v>
       </c>
@@ -4486,8 +4567,11 @@
       <c r="BA28">
         <v>-3.830674548307485</v>
       </c>
+      <c r="BB28">
+        <v>-3.830674548307485</v>
+      </c>
     </row>
-    <row r="29" spans="1:53">
+    <row r="29" spans="1:54">
       <c r="A29" s="1">
         <v>42004</v>
       </c>
@@ -4620,8 +4704,11 @@
       <c r="BA29">
         <v>-0.3546604117736365</v>
       </c>
+      <c r="BB29">
+        <v>-0.3546604117736365</v>
+      </c>
     </row>
-    <row r="30" spans="1:53">
+    <row r="30" spans="1:54">
       <c r="A30" s="1">
         <v>42094</v>
       </c>
@@ -4751,8 +4838,11 @@
       <c r="BA30">
         <v>0.5841110884116603</v>
       </c>
+      <c r="BB30">
+        <v>0.5841110884116603</v>
+      </c>
     </row>
-    <row r="31" spans="1:53">
+    <row r="31" spans="1:54">
       <c r="A31" s="1">
         <v>42185</v>
       </c>
@@ -4882,8 +4972,11 @@
       <c r="BA31">
         <v>0.3311457281599957</v>
       </c>
+      <c r="BB31">
+        <v>0.3311457281599957</v>
+      </c>
     </row>
-    <row r="32" spans="1:53">
+    <row r="32" spans="1:54">
       <c r="A32" s="1">
         <v>42277</v>
       </c>
@@ -5010,8 +5103,11 @@
       <c r="BA32">
         <v>-0.983338854947732</v>
       </c>
+      <c r="BB32">
+        <v>-0.983338854947732</v>
+      </c>
     </row>
-    <row r="33" spans="1:53">
+    <row r="33" spans="1:54">
       <c r="A33" s="1">
         <v>42369</v>
       </c>
@@ -5138,8 +5234,11 @@
       <c r="BA33">
         <v>0.0367937104471423</v>
       </c>
+      <c r="BB33">
+        <v>0.0367937104471423</v>
+      </c>
     </row>
-    <row r="34" spans="1:53">
+    <row r="34" spans="1:54">
       <c r="A34" s="1">
         <v>42460</v>
       </c>
@@ -5263,8 +5362,11 @@
       <c r="BA34">
         <v>2.049812641278834</v>
       </c>
+      <c r="BB34">
+        <v>2.049812641278834</v>
+      </c>
     </row>
-    <row r="35" spans="1:53">
+    <row r="35" spans="1:54">
       <c r="A35" s="1">
         <v>42551</v>
       </c>
@@ -5388,8 +5490,11 @@
       <c r="BA35">
         <v>2.087453263562125</v>
       </c>
+      <c r="BB35">
+        <v>2.087453263562125</v>
+      </c>
     </row>
-    <row r="36" spans="1:53">
+    <row r="36" spans="1:54">
       <c r="A36" s="1">
         <v>42643</v>
       </c>
@@ -5510,8 +5615,11 @@
       <c r="BA36">
         <v>-1.438164479066856</v>
       </c>
+      <c r="BB36">
+        <v>-1.438164479066856</v>
+      </c>
     </row>
-    <row r="37" spans="1:53">
+    <row r="37" spans="1:54">
       <c r="A37" s="1">
         <v>42735</v>
       </c>
@@ -5632,8 +5740,11 @@
       <c r="BA37">
         <v>-0.02684958208732269</v>
       </c>
+      <c r="BB37">
+        <v>-0.02684958208732269</v>
+      </c>
     </row>
-    <row r="38" spans="1:53">
+    <row r="38" spans="1:54">
       <c r="A38" s="1">
         <v>42825</v>
       </c>
@@ -5751,8 +5862,11 @@
       <c r="BA38">
         <v>0.8237845450787233</v>
       </c>
+      <c r="BB38">
+        <v>0.8237845450787233</v>
+      </c>
     </row>
-    <row r="39" spans="1:53">
+    <row r="39" spans="1:54">
       <c r="A39" s="1">
         <v>42916</v>
       </c>
@@ -5870,8 +5984,11 @@
       <c r="BA39">
         <v>2.86126545641612</v>
       </c>
+      <c r="BB39">
+        <v>2.86126545641612</v>
+      </c>
     </row>
-    <row r="40" spans="1:53">
+    <row r="40" spans="1:54">
       <c r="A40" s="1">
         <v>43008</v>
       </c>
@@ -5986,8 +6103,11 @@
       <c r="BA40">
         <v>0.5069532644027532</v>
       </c>
+      <c r="BB40">
+        <v>0.5069532644027532</v>
+      </c>
     </row>
-    <row r="41" spans="1:53">
+    <row r="41" spans="1:54">
       <c r="A41" s="1">
         <v>43100</v>
       </c>
@@ -6102,8 +6222,11 @@
       <c r="BA41">
         <v>-0.2174083661145261</v>
       </c>
+      <c r="BB41">
+        <v>-0.2174083661145261</v>
+      </c>
     </row>
-    <row r="42" spans="1:53">
+    <row r="42" spans="1:54">
       <c r="A42" s="1">
         <v>43190</v>
       </c>
@@ -6215,8 +6338,11 @@
       <c r="BA42">
         <v>0.1045745676356802</v>
       </c>
+      <c r="BB42">
+        <v>0.1045745676356802</v>
+      </c>
     </row>
-    <row r="43" spans="1:53">
+    <row r="43" spans="1:54">
       <c r="A43" s="1">
         <v>43281</v>
       </c>
@@ -6328,8 +6454,11 @@
       <c r="BA43">
         <v>0.4936918743079417</v>
       </c>
+      <c r="BB43">
+        <v>0.4936918743079417</v>
+      </c>
     </row>
-    <row r="44" spans="1:53">
+    <row r="44" spans="1:54">
       <c r="A44" s="1">
         <v>43373</v>
       </c>
@@ -6438,8 +6567,11 @@
       <c r="BA44">
         <v>1.322625689988016</v>
       </c>
+      <c r="BB44">
+        <v>1.322625689988016</v>
+      </c>
     </row>
-    <row r="45" spans="1:53">
+    <row r="45" spans="1:54">
       <c r="A45" s="1">
         <v>43465</v>
       </c>
@@ -6548,8 +6680,11 @@
       <c r="BA45">
         <v>0.6899772607160202</v>
       </c>
+      <c r="BB45">
+        <v>0.6899772607160202</v>
+      </c>
     </row>
-    <row r="46" spans="1:53">
+    <row r="46" spans="1:54">
       <c r="A46" s="1">
         <v>43555</v>
       </c>
@@ -6655,8 +6790,11 @@
       <c r="BA46">
         <v>1.240850467000882</v>
       </c>
+      <c r="BB46">
+        <v>1.240850467000882</v>
+      </c>
     </row>
-    <row r="47" spans="1:53">
+    <row r="47" spans="1:54">
       <c r="A47" s="1">
         <v>43646</v>
       </c>
@@ -6762,8 +6900,11 @@
       <c r="BA47">
         <v>2.6</v>
       </c>
+      <c r="BB47">
+        <v>2.6</v>
+      </c>
     </row>
-    <row r="48" spans="1:53">
+    <row r="48" spans="1:54">
       <c r="A48" s="1">
         <v>43738</v>
       </c>
@@ -6866,8 +7007,11 @@
       <c r="BA48">
         <v>-0.9</v>
       </c>
+      <c r="BB48">
+        <v>-0.9</v>
+      </c>
     </row>
-    <row r="49" spans="1:53">
+    <row r="49" spans="1:54">
       <c r="A49" s="1">
         <v>43830</v>
       </c>
@@ -6970,8 +7114,11 @@
       <c r="BA49">
         <v>0.4</v>
       </c>
+      <c r="BB49">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="50" spans="1:53">
+    <row r="50" spans="1:54">
       <c r="A50" s="1">
         <v>43921</v>
       </c>
@@ -7071,8 +7218,11 @@
       <c r="BA50">
         <v>0.1</v>
       </c>
+      <c r="BB50">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="51" spans="1:53">
+    <row r="51" spans="1:54">
       <c r="A51" s="1">
         <v>44012</v>
       </c>
@@ -7172,8 +7322,11 @@
       <c r="BA51">
         <v>4.305581231918552</v>
       </c>
+      <c r="BB51">
+        <v>4.305581231918552</v>
+      </c>
     </row>
-    <row r="52" spans="1:53">
+    <row r="52" spans="1:54">
       <c r="A52" s="1">
         <v>44104</v>
       </c>
@@ -7270,8 +7423,11 @@
       <c r="BA52">
         <v>-4.290231943195352</v>
       </c>
+      <c r="BB52">
+        <v>-4.290231943195352</v>
+      </c>
     </row>
-    <row r="53" spans="1:53">
+    <row r="53" spans="1:54">
       <c r="A53" s="1">
         <v>44196</v>
       </c>
@@ -7365,8 +7521,11 @@
       <c r="BA53">
         <v>-1.294763502326944</v>
       </c>
+      <c r="BB53">
+        <v>-1.294763502326944</v>
+      </c>
     </row>
-    <row r="54" spans="1:53">
+    <row r="54" spans="1:54">
       <c r="A54" s="1">
         <v>44286</v>
       </c>
@@ -7457,8 +7616,11 @@
       <c r="BA54">
         <v>3.727166552773809</v>
       </c>
+      <c r="BB54">
+        <v>3.727166552773809</v>
+      </c>
     </row>
-    <row r="55" spans="1:53">
+    <row r="55" spans="1:54">
       <c r="A55" s="1">
         <v>44377</v>
       </c>
@@ -7546,8 +7708,11 @@
       <c r="BA55">
         <v>-0.07597546477697392</v>
       </c>
+      <c r="BB55">
+        <v>-0.07597546477697392</v>
+      </c>
     </row>
-    <row r="56" spans="1:53">
+    <row r="56" spans="1:54">
       <c r="A56" s="1">
         <v>44469</v>
       </c>
@@ -7632,8 +7797,11 @@
       <c r="BA56">
         <v>1.620116340063873</v>
       </c>
+      <c r="BB56">
+        <v>1.620116340063873</v>
+      </c>
     </row>
-    <row r="57" spans="1:53">
+    <row r="57" spans="1:54">
       <c r="A57" s="1">
         <v>44561</v>
       </c>
@@ -7715,8 +7883,11 @@
       <c r="BA57">
         <v>-3.620177172843626</v>
       </c>
+      <c r="BB57">
+        <v>-3.620177172843626</v>
+      </c>
     </row>
-    <row r="58" spans="1:53">
+    <row r="58" spans="1:54">
       <c r="A58" s="1">
         <v>44651</v>
       </c>
@@ -7795,8 +7966,11 @@
       <c r="BA58">
         <v>-0.9596300199833507</v>
       </c>
+      <c r="BB58">
+        <v>-0.9596300199833507</v>
+      </c>
     </row>
-    <row r="59" spans="1:53">
+    <row r="59" spans="1:54">
       <c r="A59" s="1">
         <v>44742</v>
       </c>
@@ -7872,8 +8046,11 @@
       <c r="BA59">
         <v>3.509382378526155</v>
       </c>
+      <c r="BB59">
+        <v>3.509382378526155</v>
+      </c>
     </row>
-    <row r="60" spans="1:53">
+    <row r="60" spans="1:54">
       <c r="A60" s="1">
         <v>44834</v>
       </c>
@@ -7946,8 +8123,11 @@
       <c r="BA60">
         <v>-3.103464835402306</v>
       </c>
+      <c r="BB60">
+        <v>-3.103464835402306</v>
+      </c>
     </row>
-    <row r="61" spans="1:53">
+    <row r="61" spans="1:54">
       <c r="A61" s="1">
         <v>44926</v>
       </c>
@@ -8017,8 +8197,11 @@
       <c r="BA61">
         <v>-0.9738690852321383</v>
       </c>
+      <c r="BB61">
+        <v>-0.9738690852321383</v>
+      </c>
     </row>
-    <row r="62" spans="1:53">
+    <row r="62" spans="1:54">
       <c r="A62" s="1">
         <v>45016</v>
       </c>
@@ -8085,8 +8268,11 @@
       <c r="BA62">
         <v>-3.206836580208446</v>
       </c>
+      <c r="BB62">
+        <v>-3.206836580208446</v>
+      </c>
     </row>
-    <row r="63" spans="1:53">
+    <row r="63" spans="1:54">
       <c r="A63" s="1">
         <v>45107</v>
       </c>
@@ -8150,8 +8336,11 @@
       <c r="BA63">
         <v>1.5011358099934</v>
       </c>
+      <c r="BB63">
+        <v>1.5011358099934</v>
+      </c>
     </row>
-    <row r="64" spans="1:53">
+    <row r="64" spans="1:54">
       <c r="A64" s="1">
         <v>45199</v>
       </c>
@@ -8212,8 +8401,11 @@
       <c r="BA64">
         <v>-0.5164324031961769</v>
       </c>
+      <c r="BB64">
+        <v>-0.5164324031961769</v>
+      </c>
     </row>
-    <row r="65" spans="1:53">
+    <row r="65" spans="1:54">
       <c r="A65" s="1">
         <v>45291</v>
       </c>
@@ -8271,8 +8463,11 @@
       <c r="BA65">
         <v>-0.7267585812813877</v>
       </c>
+      <c r="BB65">
+        <v>-0.7267585812813877</v>
+      </c>
     </row>
-    <row r="66" spans="1:53">
+    <row r="66" spans="1:54">
       <c r="A66" s="1">
         <v>45382</v>
       </c>
@@ -8327,8 +8522,11 @@
       <c r="BA66">
         <v>-1.863476264789497</v>
       </c>
+      <c r="BB66">
+        <v>-1.863476264789497</v>
+      </c>
     </row>
-    <row r="67" spans="1:53">
+    <row r="67" spans="1:54">
       <c r="A67" s="1">
         <v>45473</v>
       </c>
@@ -8380,8 +8578,11 @@
       <c r="BA67">
         <v>0.5061198669764195</v>
       </c>
+      <c r="BB67">
+        <v>0.5061198669764195</v>
+      </c>
     </row>
-    <row r="68" spans="1:53">
+    <row r="68" spans="1:54">
       <c r="A68" s="1">
         <v>45565</v>
       </c>
@@ -8430,8 +8631,11 @@
       <c r="BA68">
         <v>-1.844723754442185</v>
       </c>
+      <c r="BB68">
+        <v>-1.844723754442185</v>
+      </c>
     </row>
-    <row r="69" spans="1:53">
+    <row r="69" spans="1:54">
       <c r="A69" s="1">
         <v>45657</v>
       </c>
@@ -8477,8 +8681,11 @@
       <c r="BA69">
         <v>-0.3113146714536583</v>
       </c>
+      <c r="BB69">
+        <v>-0.3113146714536583</v>
+      </c>
     </row>
-    <row r="70" spans="1:53">
+    <row r="70" spans="1:54">
       <c r="A70" s="1">
         <v>45747</v>
       </c>
@@ -8521,8 +8728,11 @@
       <c r="BA70">
         <v>0.8443262641745406</v>
       </c>
+      <c r="BB70">
+        <v>0.8443262641745406</v>
+      </c>
     </row>
-    <row r="71" spans="1:53">
+    <row r="71" spans="1:54">
       <c r="A71" s="1">
         <v>45838</v>
       </c>
@@ -8562,8 +8772,11 @@
       <c r="BA71">
         <v>0.1899266166843745</v>
       </c>
+      <c r="BB71">
+        <v>0.2255501838065186</v>
+      </c>
     </row>
-    <row r="72" spans="1:53">
+    <row r="72" spans="1:54">
       <c r="A72" s="1">
         <v>45930</v>
       </c>
@@ -8600,8 +8813,11 @@
       <c r="BA72">
         <v>-2.073458279789094</v>
       </c>
+      <c r="BB72">
+        <v>-1.137044400346582</v>
+      </c>
     </row>
-    <row r="73" spans="1:53">
+    <row r="73" spans="1:54">
       <c r="A73" s="1">
         <v>46022</v>
       </c>
@@ -8635,8 +8851,11 @@
       <c r="BA73">
         <v>0.6361754075068892</v>
       </c>
+      <c r="BB73">
+        <v>-0.4792091214565772</v>
+      </c>
     </row>
-    <row r="74" spans="1:53">
+    <row r="74" spans="1:54">
       <c r="A74" s="1">
         <v>46112</v>
       </c>
@@ -8667,8 +8886,11 @@
       <c r="BA74">
         <v>0.4436885164606705</v>
       </c>
+      <c r="BB74">
+        <v>0.4580025317319599</v>
+      </c>
     </row>
-    <row r="75" spans="1:53">
+    <row r="75" spans="1:54">
       <c r="A75" s="1">
         <v>46203</v>
       </c>
@@ -8696,8 +8918,11 @@
       <c r="BA75">
         <v>0.0228205440441531</v>
       </c>
+      <c r="BB75">
+        <v>0.1500769980497607</v>
+      </c>
     </row>
-    <row r="76" spans="1:53">
+    <row r="76" spans="1:54">
       <c r="A76" s="1">
         <v>46295</v>
       </c>
@@ -8722,8 +8947,11 @@
       <c r="BA76">
         <v>0.1454695354913681</v>
       </c>
+      <c r="BB76">
+        <v>0.08692382407563778</v>
+      </c>
     </row>
-    <row r="77" spans="1:53">
+    <row r="77" spans="1:54">
       <c r="A77" s="1">
         <v>46387</v>
       </c>
@@ -8745,8 +8973,11 @@
       <c r="BA77">
         <v>0.1910424935999793</v>
       </c>
+      <c r="BB77">
+        <v>0.1452293504052996</v>
+      </c>
     </row>
-    <row r="78" spans="1:53">
+    <row r="78" spans="1:54">
       <c r="A78" s="1">
         <v>46477</v>
       </c>
@@ -8765,8 +8996,11 @@
       <c r="BA78">
         <v>0.1604052205521926</v>
       </c>
+      <c r="BB78">
+        <v>0.1409013763615072</v>
+      </c>
     </row>
-    <row r="79" spans="1:53">
+    <row r="79" spans="1:54">
       <c r="A79" s="1">
         <v>46568</v>
       </c>
@@ -8782,8 +9016,11 @@
       <c r="BA79">
         <v>0.159175101018302</v>
       </c>
+      <c r="BB79">
+        <v>0.1335834283383753</v>
+      </c>
     </row>
-    <row r="80" spans="1:53">
+    <row r="80" spans="1:54">
       <c r="A80" s="1">
         <v>46660</v>
       </c>
@@ -8796,8 +9033,11 @@
       <c r="BA80">
         <v>0.1646608803161475</v>
       </c>
+      <c r="BB80">
+        <v>0.135872578757698</v>
+      </c>
     </row>
-    <row r="81" spans="1:53">
+    <row r="81" spans="1:54">
       <c r="A81" s="1">
         <v>46752</v>
       </c>
@@ -8807,13 +9047,27 @@
       <c r="BA81">
         <v>0.1636996783146774</v>
       </c>
+      <c r="BB81">
+        <v>0.1363920206570818</v>
+      </c>
     </row>
-    <row r="82" spans="1:53">
+    <row r="82" spans="1:54">
       <c r="A82" s="1">
         <v>46843</v>
       </c>
       <c r="BA82">
         <v>0.1629695968671948</v>
+      </c>
+      <c r="BB82">
+        <v>0.1359471541599538</v>
+      </c>
+    </row>
+    <row r="83" spans="1:54">
+      <c r="A83" s="1">
+        <v>46934</v>
+      </c>
+      <c r="BB83">
+        <v>0.1359748208526332</v>
       </c>
     </row>
   </sheetData>
